--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elsa/Desktop/THESIS/R-analysis1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elsa/Desktop/THESIS/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0CF5F5-C9ED-A748-A57D-A7F963D6D736}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3EAD3C-5B80-404C-A593-67E43B205C33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12020" yWindow="500" windowWidth="15580" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10440" yWindow="500" windowWidth="18360" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="284">
   <si>
     <t>sample</t>
   </si>
@@ -454,9 +454,6 @@
     <t>AGC33E1L1I1</t>
   </si>
   <si>
-    <t>P/R Results</t>
-  </si>
-  <si>
     <t>no parasites</t>
   </si>
   <si>
@@ -500,13 +497,388 @@
   </si>
   <si>
     <t>AGC97</t>
+  </si>
+  <si>
+    <t>AGC 33</t>
+  </si>
+  <si>
+    <t>ABB97</t>
+  </si>
+  <si>
+    <t>IF10</t>
+  </si>
+  <si>
+    <t>IF8</t>
+  </si>
+  <si>
+    <t>IF9</t>
+  </si>
+  <si>
+    <t>IF11</t>
+  </si>
+  <si>
+    <t>IF12</t>
+  </si>
+  <si>
+    <t>IF13</t>
+  </si>
+  <si>
+    <t>IF14</t>
+  </si>
+  <si>
+    <t>IF15</t>
+  </si>
+  <si>
+    <t>AGC08</t>
+  </si>
+  <si>
+    <t>IF16</t>
+  </si>
+  <si>
+    <t>AGC17</t>
+  </si>
+  <si>
+    <t>IF17</t>
+  </si>
+  <si>
+    <t>AGB89</t>
+  </si>
+  <si>
+    <t>IF18</t>
+  </si>
+  <si>
+    <t>AGC26</t>
+  </si>
+  <si>
+    <t>IF19</t>
+  </si>
+  <si>
+    <t>IF21</t>
+  </si>
+  <si>
+    <t>IF22</t>
+  </si>
+  <si>
+    <t>IF23</t>
+  </si>
+  <si>
+    <t>IF25</t>
+  </si>
+  <si>
+    <t>IF26</t>
+  </si>
+  <si>
+    <t>AGC11</t>
+  </si>
+  <si>
+    <t>IF27</t>
+  </si>
+  <si>
+    <t>AGC45</t>
+  </si>
+  <si>
+    <t>IF28</t>
+  </si>
+  <si>
+    <t>AGB92</t>
+  </si>
+  <si>
+    <t>IF29</t>
+  </si>
+  <si>
+    <t>IF30</t>
+  </si>
+  <si>
+    <t>IF31</t>
+  </si>
+  <si>
+    <t>IF32</t>
+  </si>
+  <si>
+    <t>IF33</t>
+  </si>
+  <si>
+    <t>IF34</t>
+  </si>
+  <si>
+    <t>ACB79</t>
+  </si>
+  <si>
+    <t>1F36</t>
+  </si>
+  <si>
+    <t>IF37</t>
+  </si>
+  <si>
+    <t>IF38</t>
+  </si>
+  <si>
+    <t>DF1</t>
+  </si>
+  <si>
+    <t>DF2</t>
+  </si>
+  <si>
+    <t>DF3</t>
+  </si>
+  <si>
+    <t>DF4</t>
+  </si>
+  <si>
+    <t>DF5</t>
+  </si>
+  <si>
+    <t>DF6</t>
+  </si>
+  <si>
+    <t>DF8</t>
+  </si>
+  <si>
+    <t>DF9</t>
+  </si>
+  <si>
+    <t>DF10</t>
+  </si>
+  <si>
+    <t>DF11</t>
+  </si>
+  <si>
+    <t>AGD27</t>
+  </si>
+  <si>
+    <t>DF13</t>
+  </si>
+  <si>
+    <t>AGD25</t>
+  </si>
+  <si>
+    <t>DF14</t>
+  </si>
+  <si>
+    <t>DF12</t>
+  </si>
+  <si>
+    <t>DF15</t>
+  </si>
+  <si>
+    <t>DF16</t>
+  </si>
+  <si>
+    <t>DF17</t>
+  </si>
+  <si>
+    <t>DF18</t>
+  </si>
+  <si>
+    <t>DF19</t>
+  </si>
+  <si>
+    <t>DF20</t>
+  </si>
+  <si>
+    <t>DF21</t>
+  </si>
+  <si>
+    <t>DF22</t>
+  </si>
+  <si>
+    <t>DF23</t>
+  </si>
+  <si>
+    <t>DF24</t>
+  </si>
+  <si>
+    <t>DF25</t>
+  </si>
+  <si>
+    <t>DF26</t>
+  </si>
+  <si>
+    <t>DF27</t>
+  </si>
+  <si>
+    <t>DF28</t>
+  </si>
+  <si>
+    <t>DF29</t>
+  </si>
+  <si>
+    <t>DF30</t>
+  </si>
+  <si>
+    <t>DF31</t>
+  </si>
+  <si>
+    <t>DF32</t>
+  </si>
+  <si>
+    <t>DF33</t>
+  </si>
+  <si>
+    <t>DF34</t>
+  </si>
+  <si>
+    <t>DF35</t>
+  </si>
+  <si>
+    <t>AGD03</t>
+  </si>
+  <si>
+    <t>DF36</t>
+  </si>
+  <si>
+    <t>DF37</t>
+  </si>
+  <si>
+    <t>DF38</t>
+  </si>
+  <si>
+    <t>DF39</t>
+  </si>
+  <si>
+    <t>DF40</t>
+  </si>
+  <si>
+    <t>DF41</t>
+  </si>
+  <si>
+    <t>DF42</t>
+  </si>
+  <si>
+    <t>DF44</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>Excluded</t>
+  </si>
+  <si>
+    <t>Q20</t>
+  </si>
+  <si>
+    <t>Q21</t>
+  </si>
+  <si>
+    <t>Q22</t>
+  </si>
+  <si>
+    <t>Q23</t>
+  </si>
+  <si>
+    <t>Q25</t>
+  </si>
+  <si>
+    <t>Q_code</t>
+  </si>
+  <si>
+    <t>PR_Code</t>
+  </si>
+  <si>
+    <t>PR_results_short</t>
+  </si>
+  <si>
+    <t>Q26</t>
+  </si>
+  <si>
+    <t>Q27</t>
+  </si>
+  <si>
+    <t>Q28</t>
+  </si>
+  <si>
+    <t>Q29</t>
+  </si>
+  <si>
+    <t>Q30</t>
+  </si>
+  <si>
+    <t>Q31</t>
+  </si>
+  <si>
+    <t>AGC07</t>
+  </si>
+  <si>
+    <t>Q34</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Q35</t>
+  </si>
+  <si>
+    <t>Q37</t>
+  </si>
+  <si>
+    <t>Q39</t>
+  </si>
+  <si>
+    <t>Q51</t>
+  </si>
+  <si>
+    <t>Q52</t>
+  </si>
+  <si>
+    <t>Q62</t>
+  </si>
+  <si>
+    <t>Q63</t>
+  </si>
+  <si>
+    <t>Q64</t>
+  </si>
+  <si>
+    <t>Q70</t>
+  </si>
+  <si>
+    <t>Q77</t>
+  </si>
+  <si>
+    <t>Q78</t>
+  </si>
+  <si>
+    <t>Q79</t>
+  </si>
+  <si>
+    <t>Q80</t>
+  </si>
+  <si>
+    <t>Q40 /Q81</t>
+  </si>
+  <si>
+    <t>Q82</t>
+  </si>
+  <si>
+    <t>Q83</t>
+  </si>
+  <si>
+    <t>Q84</t>
+  </si>
+  <si>
+    <t>IF24 / IF35</t>
+  </si>
+  <si>
+    <t>cryptosporidium, t leonina</t>
+  </si>
+  <si>
+    <t>t leonina</t>
+  </si>
+  <si>
+    <t>t leonina, sarcocystis, cryptosporidium, giardia</t>
+  </si>
+  <si>
+    <t>t leonina, sarcocystis, cryptosporidium</t>
+  </si>
+  <si>
+    <t>t leonina, cryptosporidium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,13 +894,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -543,12 +939,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,21 +1289,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T71"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,3853 +1314,4632 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>249</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>145</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2">
         <v>74.180000000000007</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>-20.22</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.88040000000000007</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>20426020</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>457627</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>2.7562802261711709E-2</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>2959847460</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>58320006</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>4.2078579856506433E-2</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>17.837406637468799</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.92684178963504604</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
+      <c r="C3" t="s">
+        <v>270</v>
+      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
       <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3">
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3">
         <v>70.296999999999997</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>-21.95</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.89430000000000009</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>16221522</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>926947</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>2.1411580887343181E-2</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>2272213607</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>139669644</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>2.9996068317804329E-2</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>16.915521195059799</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.94696560326516599</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
-        <v>145</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4">
         <v>74.180000000000007</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>-20.22</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.93720000000000003</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>35502248</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>32824</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>2.5265709470478789E-2</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>5277583976</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>4200157</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>3.3237536655925333E-2</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>17.754009496942398</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>0.95768245525360296</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
-        <v>150</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
       <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5">
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5">
         <v>74.180000000000007</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>-20.22</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.98409999999999997</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>33535230</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>311697</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>2.0852615898312998E-2</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>4933362100</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>42674539</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>3.1411989069206607E-2</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>17.734612243454201</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.95280755439438003</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
+      <c r="C6" t="s">
+        <v>247</v>
+      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
       <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6">
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6">
         <v>70.296999999999997</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>-21.95</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.8538</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>52828344</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>461682</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>2.4064699352441151E-2</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>7793182719</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>62257650</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>3.2539355736889368E-2</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>17.6127621209232</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>0.97164247148923499</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7">
         <v>70.296999999999997</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>-21.95</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.91439999999999999</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>41246332</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>3685371</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>1.8620880065806089E-2</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>5583636504</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>559944877</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>2.5500014735875261E-2</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>17.728899906498398</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.95098001098575202</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8">
         <v>70.296999999999997</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>-21.95</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0.9284</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>73156044</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>322553</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>1.692633703232338E-2</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>10841350545</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>48449012</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>2.4416434228931919E-2</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>17.317285313442</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>0.98312104108561404</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
+      <c r="C9" t="s">
+        <v>252</v>
+      </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9">
         <v>70.296999999999997</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>-21.95</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>0.81010000000000004</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>54533610</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>4843</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>1.9745790695337662E-2</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>8099878023</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>724022</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>2.926540745383677E-2</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>17.587716459006501</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>0.97617861605050604</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
-        <v>150</v>
-      </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="E10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10">
         <v>74.180000000000007</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>-20.22</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>0.97699999999999998</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>28710272</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>35565</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>1.6726855472957491E-2</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>4267981994</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>4675717</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>2.4463071850454599E-2</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>17.533032579815099</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>0.95457050025446799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
-        <v>145</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11">
         <v>74.180000000000007</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>-20.22</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0.91839999999999999</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>32839346</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>231401</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>1.551736222469691E-2</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>4836853424</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>34046436</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>2.650997931725874E-2</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>17.087949784273199</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>0.97536317269567596</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
-        <v>147</v>
-      </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="E12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
         <v>22</v>
       </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12">
         <v>74.180000000000007</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>-20.22</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>0.94950000000000001</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>40659506</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>391635</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>3.2377480746790921E-2</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>5979999947</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>52717026</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>4.2881830166873518E-2</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>17.212077712279299</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>0.981692634472487</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
       <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
         <v>35</v>
       </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13">
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13">
         <v>70.296999999999997</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>-21.95</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>0.94769999999999999</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>28939138</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>6340442</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>3.3157020110532121E-2</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>3333332529</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>966524804</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>4.2291935362806288E-2</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>17.802521040893001</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>0.94351027924792297</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
-        <v>145</v>
-      </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="E14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
         <v>22</v>
       </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14">
         <v>74.180000000000007</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>-20.22</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>0.94310000000000005</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>135880048</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>454799</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>1.481270768191034E-2</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>20115590239</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>65641331</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>2.4517424069369961E-2</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>17.648939807191901</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>0.99044314709455505</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
       </c>
+      <c r="C15" t="s">
+        <v>271</v>
+      </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="E15" t="s">
+        <v>280</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15">
         <v>70.296999999999997</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>-21.95</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>0.81659999999999999</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>19841212</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>5222</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>1.306858127624921E-2</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>2945240633</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>772127</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>2.3072934319713689E-2</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>15.9583650618485</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>0.94059622326915504</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
         <v>29</v>
       </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
       <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
         <v>35</v>
       </c>
-      <c r="I16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16">
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16">
         <v>70.296999999999997</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>-21.95</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>0.86219999999999997</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>43274456</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>1099182</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>2.0353407055599619E-2</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>6265662956</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>166601956</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>2.9243116546381231E-2</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>17.210250196668799</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>0.97144998505782298</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>58</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
       </c>
+      <c r="C17" t="s">
+        <v>248</v>
+      </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="E17" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
         <v>29</v>
       </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
       <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
         <v>35</v>
       </c>
-      <c r="I17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17">
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17">
         <v>70.296999999999997</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>-21.95</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>0.91820000000000002</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>49306316</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>122919</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>2.6681000720124359E-2</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>7318063842</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>18606552</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>3.4481953463545323E-2</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>17.9834042807061</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>0.96087604066557097</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
         <v>29</v>
       </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18">
         <v>70.296999999999997</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>-21.95</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>0.86549999999999994</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>43347656</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>294578</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>2.2157860362998268E-2</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>6400784626</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>43510685</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>3.085824442872798E-2</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>17.5378006583597</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>0.95705830455683005</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>62</v>
       </c>
       <c r="B19" t="s">
         <v>63</v>
       </c>
+      <c r="C19" t="s">
+        <v>265</v>
+      </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
         <v>29</v>
       </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19">
         <v>70.296999999999997</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>-21.95</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>0.97719999999999996</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>37073948</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>6673135</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>1.756674945574432E-2</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>4493685257</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>1011389534</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>2.746289273690361E-2</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>17.838230282033599</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>0.94843559447155401</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>64</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
       </c>
-      <c r="C20" t="s">
-        <v>150</v>
-      </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="E20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20">
         <v>74.180000000000007</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>-20.22</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>0.92210000000000003</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>35036088</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>84863</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>1.8573662478033048E-2</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>5194532574</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>12305564</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>2.764485124651328E-2</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>16.7536244078455</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>0.98170179154668902</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>66</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
       </c>
+      <c r="C21" t="s">
+        <v>264</v>
+      </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="E21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
         <v>29</v>
       </c>
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21">
         <v>70.296999999999997</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>-21.95</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>0.90839999999999999</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>41476756</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>17751</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>2.333705301165612E-2</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>6144454295</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>1994390</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>3.5120829892493537E-2</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>17.420983133656801</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>0.98031898241221904</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>68</v>
       </c>
       <c r="B22" t="s">
         <v>69</v>
       </c>
-      <c r="C22" t="s">
-        <v>145</v>
-      </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="E22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
         <v>22</v>
       </c>
-      <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22">
         <v>74.180000000000007</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>-20.22</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>0.95879999999999999</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>23288570</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>93659</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>3.9581725149104963E-2</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>3446327302</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>11778817</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>4.9253685946566872E-2</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>16.886952787975599</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>0.96630651838300796</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>70</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
         <v>29</v>
       </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23">
         <v>70.296999999999997</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>-21.95</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>0.84310000000000007</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>21481532</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>249750</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>1.7417098193191819E-2</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>3153109649</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>37453172</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>2.7073588899495619E-2</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>17.949204059123701</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>0.92511078277145398</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>72</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
       </c>
+      <c r="C24" t="s">
+        <v>263</v>
+      </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="E24" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
         <v>29</v>
       </c>
-      <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24">
         <v>70.296999999999997</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>-21.95</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>0.85299999999999998</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>42256622</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>17249</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>1.7032929098262931E-2</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>6276705668</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>2588567</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>2.6213459670594848E-2</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>17.102647724330801</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>0.95433178592081502</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>74</v>
       </c>
       <c r="B25" t="s">
         <v>75</v>
       </c>
-      <c r="C25" t="s">
-        <v>145</v>
-      </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="E25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
         <v>22</v>
       </c>
-      <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25">
         <v>74.180000000000007</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>-20.22</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>0.99639999999999995</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>32954722</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>87251</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>2.4042257683092649E-2</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>4881907472</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>12530735</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>3.3671135725085177E-2</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>16.696624917066099</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>0.97919245278111799</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>76</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
       </c>
-      <c r="C26" t="s">
-        <v>145</v>
-      </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
         <v>22</v>
       </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26">
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26">
         <v>74.180000000000007</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>-20.22</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>0.89159999999999995</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>25623632</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>265435</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>3.4205171931211087E-2</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>3769676465</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>35874973</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>4.3752034119612038E-2</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>16.808667142781601</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>0.97688406035418895</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>78</v>
       </c>
       <c r="B27" t="s">
         <v>79</v>
       </c>
-      <c r="C27" t="s">
-        <v>145</v>
-      </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="E27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
         <v>22</v>
       </c>
-      <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27">
         <v>74.180000000000007</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>-20.22</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>0.93289999999999995</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>54511426</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>1862948</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>1.3860728503947369E-2</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>7831375754</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>272615552</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>2.2631318590077609E-2</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>17.880142666539999</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>0.97232989379164203</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>80</v>
       </c>
       <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="C28" t="s">
-        <v>150</v>
-      </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="E28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
         <v>22</v>
       </c>
-      <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
       <c r="H28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28">
         <v>74.180000000000007</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>-20.22</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>0.98760000000000003</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>59986486</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>92257</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>2.4322293666233171E-2</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>8906989824</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>11874819</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>3.2900243788957173E-2</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>17.4999173768548</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>0.98163769185874805</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>82</v>
       </c>
       <c r="B29" t="s">
         <v>83</v>
       </c>
+      <c r="C29" t="s">
+        <v>244</v>
+      </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="E29" t="s">
+        <v>243</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
         <v>29</v>
       </c>
-      <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29">
         <v>70.296999999999997</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>-21.95</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>0.97850000000000004</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>29350834</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>13618</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>1.544430478053116E-2</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>4363104057</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>2048114</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>2.3824347329124411E-2</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>17.2086655957525</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>0.968057968944247</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>84</v>
       </c>
       <c r="B30" t="s">
         <v>85</v>
       </c>
+      <c r="C30" t="s">
+        <v>276</v>
+      </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="E30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
         <v>29</v>
       </c>
-      <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30">
+        <v>24</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30">
         <v>70.296999999999997</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>-21.95</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>0.94579999999999997</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>47412314</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>1121644</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>2.8106182775585849E-2</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>6872446871</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>143680261</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <v>4.1187122758690853E-2</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>17.7006105041681</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>0.96424290856253603</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>86</v>
       </c>
       <c r="B31" t="s">
         <v>87</v>
       </c>
+      <c r="C31" t="s">
+        <v>262</v>
+      </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="E31" t="s">
+        <v>282</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
         <v>29</v>
       </c>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
       <c r="H31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
         <v>35</v>
       </c>
-      <c r="I31" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31">
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31">
         <v>70.296999999999997</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>-21.95</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>0.9103</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>18307608</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <v>125353</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>2.745361526945389E-2</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>2705166311</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>17047364</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <v>3.592755241962664E-2</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>17.404314951204299</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>0.93927220801188505</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>88</v>
       </c>
       <c r="B32" t="s">
         <v>89</v>
       </c>
-      <c r="C32" t="s">
-        <v>145</v>
-      </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="E32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
         <v>22</v>
       </c>
-      <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32">
+        <v>24</v>
+      </c>
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32">
         <v>74.180000000000007</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>-20.22</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>0.97770000000000001</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>43155022</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>408258</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>1.7136144578368099E-2</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>6362870675</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>62244382</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>2.4445195671456529E-2</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <v>17.195437115489799</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>0.97636185294030897</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>90</v>
       </c>
       <c r="B33" t="s">
         <v>91</v>
       </c>
-      <c r="C33" t="s">
-        <v>145</v>
-      </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="E33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
         <v>22</v>
       </c>
-      <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33">
         <v>74.180000000000007</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>-20.22</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>0.93589999999999995</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>36203472</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>687017</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>1.6817275633827289E-2</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>5278931308</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <v>97149032</v>
       </c>
-      <c r="R33">
+      <c r="T33">
         <v>2.667358992665669E-2</v>
       </c>
-      <c r="S33">
+      <c r="U33">
         <v>17.3550442814165</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <v>0.966370712932483</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
       <c r="B34" t="s">
         <v>93</v>
       </c>
+      <c r="C34" t="s">
+        <v>273</v>
+      </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
         <v>29</v>
       </c>
-      <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
       <c r="H34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>26</v>
-      </c>
-      <c r="J34">
+        <v>24</v>
+      </c>
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34">
         <v>70.296999999999997</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>-21.95</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>0.92279999999999995</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>46722970</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>2289851</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>1.961933432859142E-2</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <v>6607302774</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <v>346411417</v>
       </c>
-      <c r="R34">
+      <c r="T34">
         <v>2.727545680974475E-2</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <v>16.9678720193847</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <v>0.97861540265040703</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>94</v>
       </c>
       <c r="B35" t="s">
         <v>95</v>
       </c>
-      <c r="C35" t="s">
-        <v>145</v>
-      </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="E35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
         <v>22</v>
       </c>
-      <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>24</v>
-      </c>
       <c r="H35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35">
+        <v>24</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35">
         <v>74.180000000000007</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>-20.22</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>0.95109999999999995</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>46828184</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <v>6585835</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>2.7920420482758002E-2</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <v>5963392503</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <v>995848373</v>
       </c>
-      <c r="R35">
+      <c r="T35">
         <v>3.6913902889296642E-2</v>
       </c>
-      <c r="S35">
+      <c r="U35">
         <v>17.7104139490636</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <v>0.96499502770359002</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>96</v>
       </c>
       <c r="B36" t="s">
         <v>97</v>
       </c>
-      <c r="C36" t="s">
-        <v>146</v>
-      </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="E36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
         <v>22</v>
       </c>
-      <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36">
+        <v>24</v>
+      </c>
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36">
         <v>74.180000000000007</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>-20.22</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>0.89780000000000004</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>13469414</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <v>93603</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>2.3811342573635149E-2</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <v>1983878444</v>
       </c>
-      <c r="Q36">
+      <c r="S36">
         <v>11457362</v>
       </c>
-      <c r="R36">
+      <c r="T36">
         <v>3.5927283560668877E-2</v>
       </c>
-      <c r="S36">
+      <c r="U36">
         <v>17.414146979863101</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <v>0.93290712767222295</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>98</v>
       </c>
       <c r="B37" t="s">
         <v>99</v>
       </c>
-      <c r="C37" t="s">
-        <v>145</v>
-      </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="E37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
         <v>22</v>
       </c>
-      <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
       <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
         <v>35</v>
       </c>
-      <c r="I37" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37">
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37">
         <v>74.180000000000007</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>-20.22</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>0.98880000000000001</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>26672712</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <v>7332</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>1.736533471499746E-2</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <v>3967378751</v>
       </c>
-      <c r="Q37">
+      <c r="S37">
         <v>996368</v>
       </c>
-      <c r="R37">
+      <c r="T37">
         <v>2.5355212777289131E-2</v>
       </c>
-      <c r="S37">
+      <c r="U37">
         <v>17.3575995019564</v>
       </c>
-      <c r="T37">
+      <c r="V37">
         <v>0.957076662475983</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>100</v>
       </c>
       <c r="B38" t="s">
         <v>101</v>
       </c>
+      <c r="C38" t="s">
+        <v>269</v>
+      </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="E38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
         <v>29</v>
       </c>
-      <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
       <c r="H38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I38" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38">
+        <v>24</v>
+      </c>
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38">
         <v>70.296999999999997</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>-21.95</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>0.91490000000000005</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>26616210</v>
       </c>
-      <c r="N38">
+      <c r="P38">
         <v>468</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <v>2.2826455847127392E-2</v>
       </c>
-      <c r="P38">
+      <c r="R38">
         <v>3964146985</v>
       </c>
-      <c r="Q38">
+      <c r="S38">
         <v>72002</v>
       </c>
-      <c r="R38">
+      <c r="T38">
         <v>2.9731651670191431E-2</v>
       </c>
-      <c r="S38">
+      <c r="U38">
         <v>16.848749036975999</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <v>0.973585467355637</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>102</v>
       </c>
       <c r="B39" t="s">
         <v>103</v>
       </c>
-      <c r="C39" t="s">
-        <v>145</v>
-      </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
         <v>22</v>
       </c>
-      <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>24</v>
-      </c>
       <c r="H39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I39" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39">
         <v>74.180000000000007</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>-20.22</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>0.94210000000000005</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>33456768</v>
       </c>
-      <c r="N39">
+      <c r="P39">
         <v>25316</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <v>2.2552185738868309E-2</v>
       </c>
-      <c r="P39">
+      <c r="R39">
         <v>4973994875</v>
       </c>
-      <c r="Q39">
+      <c r="S39">
         <v>3299384</v>
       </c>
-      <c r="R39">
+      <c r="T39">
         <v>3.0580719493680238E-2</v>
       </c>
-      <c r="S39">
+      <c r="U39">
         <v>17.5264579037697</v>
       </c>
-      <c r="T39">
+      <c r="V39">
         <v>0.96174767939483996</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>104</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>105</v>
       </c>
+      <c r="C40" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
         <v>29</v>
       </c>
-      <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>24</v>
-      </c>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I40" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40">
+        <v>24</v>
+      </c>
+      <c r="J40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40">
         <v>70.296999999999997</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>-21.95</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>0.99550000000000005</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>33347130</v>
       </c>
-      <c r="N40">
+      <c r="P40">
         <v>115805</v>
       </c>
-      <c r="O40">
+      <c r="Q40">
         <v>1.9735034651453879E-2</v>
       </c>
-      <c r="P40">
+      <c r="R40">
         <v>4951512745</v>
       </c>
-      <c r="Q40">
+      <c r="S40">
         <v>17176644</v>
       </c>
-      <c r="R40">
+      <c r="T40">
         <v>2.627659776902869E-2</v>
       </c>
-      <c r="S40">
+      <c r="U40">
         <v>17.181310963950999</v>
       </c>
-      <c r="T40">
+      <c r="V40">
         <v>0.97005664305125805</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>106</v>
       </c>
       <c r="B41" t="s">
         <v>107</v>
       </c>
+      <c r="C41" t="s">
+        <v>275</v>
+      </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="E41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
         <v>29</v>
       </c>
-      <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>24</v>
-      </c>
       <c r="H41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
         <v>35</v>
       </c>
-      <c r="I41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41">
+      <c r="K41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41">
         <v>70.296999999999997</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>-21.95</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <v>0.93230000000000002</v>
       </c>
-      <c r="M41">
+      <c r="O41">
         <v>36443872</v>
       </c>
-      <c r="N41">
+      <c r="P41">
         <v>278045</v>
       </c>
-      <c r="O41">
+      <c r="Q41">
         <v>2.620231463469902E-2</v>
       </c>
-      <c r="P41">
+      <c r="R41">
         <v>5382823318</v>
       </c>
-      <c r="Q41">
+      <c r="S41">
         <v>42086962</v>
       </c>
-      <c r="R41">
+      <c r="T41">
         <v>3.3625356094905468E-2</v>
       </c>
-      <c r="S41">
+      <c r="U41">
         <v>17.387736452754599</v>
       </c>
-      <c r="T41">
+      <c r="V41">
         <v>0.96601305248265501</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>108</v>
       </c>
       <c r="B42" t="s">
         <v>109</v>
       </c>
-      <c r="C42" t="s">
-        <v>145</v>
-      </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="E42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
         <v>22</v>
       </c>
-      <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
       <c r="H42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I42" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42">
         <v>74.180000000000007</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>-20.22</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <v>0.98819999999999997</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>33313218</v>
       </c>
-      <c r="N42">
+      <c r="P42">
         <v>313858</v>
       </c>
-      <c r="O42">
+      <c r="Q42">
         <v>3.0271639766072059E-2</v>
       </c>
-      <c r="P42">
+      <c r="R42">
         <v>4902671275</v>
       </c>
-      <c r="Q42">
+      <c r="S42">
         <v>44026595</v>
       </c>
-      <c r="R42">
+      <c r="T42">
         <v>4.0030053726669117E-2</v>
       </c>
-      <c r="S42">
+      <c r="U42">
         <v>17.051787254641301</v>
       </c>
-      <c r="T42">
+      <c r="V42">
         <v>0.98231529724264499</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>110</v>
       </c>
       <c r="B43" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="C43" t="s">
+        <v>277</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
         <v>29</v>
       </c>
-      <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>24</v>
-      </c>
       <c r="H43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s">
         <v>35</v>
       </c>
-      <c r="I43" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43">
+      <c r="K43" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43">
         <v>70.296999999999997</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>-21.95</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>0.91720000000000002</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>19859782</v>
       </c>
-      <c r="N43">
+      <c r="P43">
         <v>855956</v>
       </c>
-      <c r="O43">
+      <c r="Q43">
         <v>2.5666368606920179E-2</v>
       </c>
-      <c r="P43">
+      <c r="R43">
         <v>2826215121</v>
       </c>
-      <c r="Q43">
+      <c r="S43">
         <v>129656036</v>
       </c>
-      <c r="R43">
+      <c r="T43">
         <v>3.3220445780027703E-2</v>
       </c>
-      <c r="S43">
+      <c r="U43">
         <v>17.5995407624692</v>
       </c>
-      <c r="T43">
+      <c r="V43">
         <v>0.93103914178226799</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>112</v>
       </c>
       <c r="B44" t="s">
         <v>113</v>
       </c>
-      <c r="C44" t="s">
-        <v>145</v>
-      </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="E44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
         <v>22</v>
       </c>
-      <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
       <c r="H44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I44" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44">
+        <v>24</v>
+      </c>
+      <c r="J44" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44">
         <v>74.180000000000007</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>-20.22</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>0.93079999999999996</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>41008160</v>
       </c>
-      <c r="N44">
+      <c r="P44">
         <v>203691</v>
       </c>
-      <c r="O44">
+      <c r="Q44">
         <v>2.0964148872649638E-2</v>
       </c>
-      <c r="P44">
+      <c r="R44">
         <v>6061945401</v>
       </c>
-      <c r="Q44">
+      <c r="S44">
         <v>27879864</v>
       </c>
-      <c r="R44">
+      <c r="T44">
         <v>3.073644179823121E-2</v>
       </c>
-      <c r="S44">
+      <c r="U44">
         <v>17.453356509931599</v>
       </c>
-      <c r="T44">
+      <c r="V44">
         <v>0.97920161204937395</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>114</v>
       </c>
       <c r="B45" t="s">
         <v>115</v>
       </c>
+      <c r="C45" t="s">
+        <v>272</v>
+      </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="E45" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
         <v>29</v>
       </c>
-      <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
       <c r="H45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I45" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45">
         <v>70.296999999999997</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>-21.95</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>0.72329999999999994</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>40159986</v>
       </c>
-      <c r="N45">
+      <c r="P45">
         <v>36686</v>
       </c>
-      <c r="O45">
+      <c r="Q45">
         <v>2.0426743822722582E-2</v>
       </c>
-      <c r="P45">
+      <c r="R45">
         <v>5964480529</v>
       </c>
-      <c r="Q45">
+      <c r="S45">
         <v>5501443</v>
       </c>
-      <c r="R45">
+      <c r="T45">
         <v>2.9210372129830239E-2</v>
       </c>
-      <c r="S45">
+      <c r="U45">
         <v>17.384878783490201</v>
       </c>
-      <c r="T45">
+      <c r="V45">
         <v>0.96732441334960495</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
         <v>29</v>
       </c>
-      <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>24</v>
-      </c>
       <c r="H46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I46" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46">
         <v>70.296999999999997</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>-21.95</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>0.86909999999999998</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>35961288</v>
       </c>
-      <c r="N46">
+      <c r="P46">
         <v>2433439</v>
       </c>
-      <c r="O46">
+      <c r="Q46">
         <v>4.0267041735519322E-2</v>
       </c>
-      <c r="P46">
+      <c r="R46">
         <v>4985455542</v>
       </c>
-      <c r="Q46">
+      <c r="S46">
         <v>370691905</v>
       </c>
-      <c r="R46">
+      <c r="T46">
         <v>4.7036128737462442E-2</v>
       </c>
-      <c r="S46">
+      <c r="U46">
         <v>17.6863316813461</v>
       </c>
-      <c r="T46">
+      <c r="V46">
         <v>0.95123717270497399</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>118</v>
       </c>
       <c r="B47" t="s">
         <v>119</v>
       </c>
-      <c r="C47" t="s">
-        <v>145</v>
-      </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="E47" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
         <v>22</v>
       </c>
-      <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>24</v>
-      </c>
       <c r="H47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I47" t="s">
-        <v>26</v>
-      </c>
-      <c r="J47">
+        <v>24</v>
+      </c>
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47">
         <v>74.180000000000007</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>-20.22</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>0.97050000000000003</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>56723288</v>
       </c>
-      <c r="N47">
+      <c r="P47">
         <v>229392</v>
       </c>
-      <c r="O47">
+      <c r="Q47">
         <v>2.518603483273096E-2</v>
       </c>
-      <c r="P47">
+      <c r="R47">
         <v>8391035278</v>
       </c>
-      <c r="Q47">
+      <c r="S47">
         <v>28936514</v>
       </c>
-      <c r="R47">
+      <c r="T47">
         <v>3.5327889883478347E-2</v>
       </c>
-      <c r="S47">
+      <c r="U47">
         <v>17.1838522379417</v>
       </c>
-      <c r="T47">
+      <c r="V47">
         <v>0.98033729896198796</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>120</v>
       </c>
       <c r="B48" t="s">
         <v>121</v>
       </c>
-      <c r="C48" t="s">
-        <v>145</v>
-      </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="E48" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
         <v>22</v>
       </c>
-      <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
       <c r="H48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I48" t="s">
-        <v>26</v>
-      </c>
-      <c r="J48">
+        <v>24</v>
+      </c>
+      <c r="J48" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48">
         <v>74.180000000000007</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>-20.22</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <v>0.97550000000000003</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>40541728</v>
       </c>
-      <c r="N48">
+      <c r="P48">
         <v>131960</v>
       </c>
-      <c r="O48">
+      <c r="Q48">
         <v>2.8534143508673001E-2</v>
       </c>
-      <c r="P48">
+      <c r="R48">
         <v>6009225904</v>
       </c>
-      <c r="Q48">
+      <c r="S48">
         <v>18005686</v>
       </c>
-      <c r="R48">
+      <c r="T48">
         <v>3.7164918270391589E-2</v>
       </c>
-      <c r="S48">
+      <c r="U48">
         <v>17.504550858224999</v>
       </c>
-      <c r="T48">
+      <c r="V48">
         <v>0.97368627323170098</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>122</v>
       </c>
       <c r="B49" t="s">
         <v>123</v>
       </c>
+      <c r="C49" t="s">
+        <v>261</v>
+      </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="E49" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
         <v>29</v>
       </c>
-      <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>24</v>
-      </c>
       <c r="H49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I49" t="s">
-        <v>26</v>
-      </c>
-      <c r="J49">
+        <v>24</v>
+      </c>
+      <c r="J49" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49">
         <v>70.296999999999997</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>-21.95</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <v>0.86360000000000003</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>23715482</v>
       </c>
-      <c r="N49">
+      <c r="P49">
         <v>193299</v>
       </c>
-      <c r="O49">
+      <c r="Q49">
         <v>1.8052397133193621E-2</v>
       </c>
-      <c r="P49">
+      <c r="R49">
         <v>3495571363</v>
       </c>
-      <c r="Q49">
+      <c r="S49">
         <v>28877445</v>
       </c>
-      <c r="R49">
+      <c r="T49">
         <v>2.7126651289827379E-2</v>
       </c>
-      <c r="S49">
+      <c r="U49">
         <v>18.047982658008401</v>
       </c>
-      <c r="T49">
+      <c r="V49">
         <v>0.919510545719329</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>124</v>
       </c>
       <c r="B50" t="s">
         <v>125</v>
       </c>
-      <c r="C50" t="s">
-        <v>145</v>
-      </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="E50" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
         <v>22</v>
       </c>
-      <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
       <c r="H50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I50" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50">
+        <v>24</v>
+      </c>
+      <c r="J50" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50">
         <v>74.180000000000007</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>-20.22</v>
       </c>
-      <c r="L50">
+      <c r="N50">
         <v>0.92700000000000005</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>42103908</v>
       </c>
-      <c r="N50">
+      <c r="P50">
         <v>78070</v>
       </c>
-      <c r="O50">
+      <c r="Q50">
         <v>1.9120802861534499E-2</v>
       </c>
-      <c r="P50">
+      <c r="R50">
         <v>6259904670</v>
       </c>
-      <c r="Q50">
+      <c r="S50">
         <v>11392957</v>
       </c>
-      <c r="R50">
+      <c r="T50">
         <v>2.599929973434234E-2</v>
       </c>
-      <c r="S50">
+      <c r="U50">
         <v>17.209460458707799</v>
       </c>
-      <c r="T50">
+      <c r="V50">
         <v>0.97288896359492905</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>126</v>
       </c>
       <c r="B51" t="s">
         <v>127</v>
       </c>
-      <c r="C51" t="s">
-        <v>145</v>
-      </c>
       <c r="D51" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
         <v>22</v>
       </c>
-      <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s">
-        <v>24</v>
-      </c>
       <c r="H51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" t="s">
         <v>35</v>
       </c>
-      <c r="I51" t="s">
-        <v>26</v>
-      </c>
-      <c r="J51">
+      <c r="K51" t="s">
+        <v>26</v>
+      </c>
+      <c r="L51">
         <v>74.180000000000007</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>-20.22</v>
       </c>
-      <c r="L51">
+      <c r="N51">
         <v>0.96250000000000002</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>45323804</v>
       </c>
-      <c r="N51">
+      <c r="P51">
         <v>162306</v>
       </c>
-      <c r="O51">
+      <c r="Q51">
         <v>2.6834148795907061E-2</v>
       </c>
-      <c r="P51">
+      <c r="R51">
         <v>6721463851</v>
       </c>
-      <c r="Q51">
+      <c r="S51">
         <v>22459522</v>
       </c>
-      <c r="R51">
+      <c r="T51">
         <v>3.4656501215016837E-2</v>
       </c>
-      <c r="S51">
+      <c r="U51">
         <v>17.573212004663599</v>
       </c>
-      <c r="T51">
+      <c r="V51">
         <v>0.969286557603106</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>128</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
         <v>29</v>
       </c>
-      <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
       <c r="H52" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" t="s">
         <v>35</v>
       </c>
-      <c r="I52" t="s">
-        <v>26</v>
-      </c>
-      <c r="J52">
+      <c r="K52" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52">
         <v>70.296999999999997</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>-21.95</v>
       </c>
-      <c r="L52">
+      <c r="N52">
         <v>0.85250000000000004</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>27819558</v>
       </c>
-      <c r="N52">
+      <c r="P52">
         <v>493970</v>
       </c>
-      <c r="O52">
+      <c r="Q52">
         <v>2.023345157868894E-2</v>
       </c>
-      <c r="P52">
+      <c r="R52">
         <v>4056583886</v>
       </c>
-      <c r="Q52">
+      <c r="S52">
         <v>74801533</v>
       </c>
-      <c r="R52">
+      <c r="T52">
         <v>2.9988606775189771E-2</v>
       </c>
-      <c r="S52">
+      <c r="U52">
         <v>17.671070431947498</v>
       </c>
-      <c r="T52">
+      <c r="V52">
         <v>0.94609269456371703</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>130</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
         <v>29</v>
       </c>
-      <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>24</v>
-      </c>
       <c r="H53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I53" t="s">
-        <v>26</v>
-      </c>
-      <c r="J53">
+        <v>24</v>
+      </c>
+      <c r="J53" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53">
         <v>70.296999999999997</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>-21.95</v>
       </c>
-      <c r="L53">
+      <c r="N53">
         <v>0.91679999999999995</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>32120512</v>
       </c>
-      <c r="N53">
+      <c r="P53">
         <v>413420</v>
       </c>
-      <c r="O53">
+      <c r="Q53">
         <v>2.3881044236142901E-2</v>
       </c>
-      <c r="P53">
+      <c r="R53">
         <v>4714791156</v>
       </c>
-      <c r="Q53">
+      <c r="S53">
         <v>58632783</v>
       </c>
-      <c r="R53">
+      <c r="T53">
         <v>3.2927496972468877E-2</v>
       </c>
-      <c r="S53">
+      <c r="U53">
         <v>16.9351822894028</v>
       </c>
-      <c r="T53">
+      <c r="V53">
         <v>0.95973821096377698</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>132</v>
       </c>
       <c r="B54" t="s">
         <v>133</v>
       </c>
-      <c r="C54" t="s">
-        <v>145</v>
-      </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="E54" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
         <v>22</v>
       </c>
-      <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s">
-        <v>24</v>
-      </c>
       <c r="H54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" t="s">
         <v>35</v>
       </c>
-      <c r="I54" t="s">
-        <v>26</v>
-      </c>
-      <c r="J54">
+      <c r="K54" t="s">
+        <v>26</v>
+      </c>
+      <c r="L54">
         <v>74.180000000000007</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>-20.22</v>
       </c>
-      <c r="L54">
+      <c r="N54">
         <v>0.96660000000000001</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>26506642</v>
       </c>
-      <c r="N54">
+      <c r="P54">
         <v>103835</v>
       </c>
-      <c r="O54">
+      <c r="Q54">
         <v>1.27458698982087E-2</v>
       </c>
-      <c r="P54">
+      <c r="R54">
         <v>3932186602</v>
       </c>
-      <c r="Q54">
+      <c r="S54">
         <v>15028892</v>
       </c>
-      <c r="R54">
+      <c r="T54">
         <v>1.989224717002824E-2</v>
       </c>
-      <c r="S54">
+      <c r="U54">
         <v>17.799340301118299</v>
       </c>
-      <c r="T54">
+      <c r="V54">
         <v>0.94545863975543898</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>134</v>
       </c>
       <c r="B55" t="s">
         <v>135</v>
       </c>
+      <c r="C55" t="s">
+        <v>253</v>
+      </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="E55" t="s">
+        <v>283</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
         <v>29</v>
       </c>
-      <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s">
-        <v>24</v>
-      </c>
       <c r="H55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I55" t="s">
-        <v>26</v>
-      </c>
-      <c r="J55">
+        <v>24</v>
+      </c>
+      <c r="J55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55">
         <v>70.296999999999997</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>-21.95</v>
       </c>
-      <c r="L55">
+      <c r="N55">
         <v>0.95379999999999998</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>38451084</v>
       </c>
-      <c r="N55">
+      <c r="P55">
         <v>1339</v>
       </c>
-      <c r="O55">
+      <c r="Q55">
         <v>2.2360290833639E-2</v>
       </c>
-      <c r="P55">
+      <c r="R55">
         <v>5724389869</v>
       </c>
-      <c r="Q55">
+      <c r="S55">
         <v>191439</v>
       </c>
-      <c r="R55">
+      <c r="T55">
         <v>2.966272592777764E-2</v>
       </c>
-      <c r="S55">
+      <c r="U55">
         <v>17.674914328896399</v>
       </c>
-      <c r="T55">
+      <c r="V55">
         <v>0.957287776168672</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>136</v>
       </c>
       <c r="B56" t="s">
         <v>137</v>
       </c>
-      <c r="C56" t="s">
-        <v>147</v>
-      </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="E56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
         <v>22</v>
       </c>
-      <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>24</v>
-      </c>
       <c r="H56" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>26</v>
-      </c>
-      <c r="J56">
+        <v>24</v>
+      </c>
+      <c r="J56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56">
         <v>74.180000000000007</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>-20.22</v>
       </c>
-      <c r="L56">
+      <c r="N56">
         <v>0.89950000000000008</v>
       </c>
-      <c r="M56">
+      <c r="O56">
         <v>23685984</v>
       </c>
-      <c r="N56">
+      <c r="P56">
         <v>88321</v>
       </c>
-      <c r="O56">
+      <c r="Q56">
         <v>2.078390257938412E-2</v>
       </c>
-      <c r="P56">
+      <c r="R56">
         <v>3511673995</v>
       </c>
-      <c r="Q56">
+      <c r="S56">
         <v>12776481</v>
       </c>
-      <c r="R56">
+      <c r="T56">
         <v>2.8624230357511049E-2</v>
       </c>
-      <c r="S56">
+      <c r="U56">
         <v>17.476185110916099</v>
       </c>
-      <c r="T56">
+      <c r="V56">
         <v>0.95838916799718599</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>138</v>
       </c>
       <c r="B57" t="s">
         <v>139</v>
       </c>
-      <c r="C57" t="s">
-        <v>145</v>
-      </c>
       <c r="D57" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="E57" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
         <v>22</v>
       </c>
-      <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>24</v>
-      </c>
       <c r="H57" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I57" t="s">
-        <v>26</v>
-      </c>
-      <c r="J57">
+        <v>24</v>
+      </c>
+      <c r="J57" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57">
         <v>74.180000000000007</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>-20.22</v>
       </c>
-      <c r="L57">
+      <c r="N57">
         <v>0.94879999999999998</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>37758512</v>
       </c>
-      <c r="N57">
+      <c r="P57">
         <v>1365756</v>
       </c>
-      <c r="O57">
+      <c r="Q57">
         <v>1.9953963014885719E-2</v>
       </c>
-      <c r="P57">
+      <c r="R57">
         <v>5412338431</v>
       </c>
-      <c r="Q57">
+      <c r="S57">
         <v>205005134</v>
       </c>
-      <c r="R57">
+      <c r="T57">
         <v>2.79886560391851E-2</v>
       </c>
-      <c r="S57">
+      <c r="U57">
         <v>17.620245144242201</v>
       </c>
-      <c r="T57">
+      <c r="V57">
         <v>0.96520597805894803</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>140</v>
       </c>
       <c r="B58" t="s">
         <v>141</v>
       </c>
-      <c r="C58" t="s">
-        <v>145</v>
-      </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="E58" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
         <v>22</v>
       </c>
-      <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s">
-        <v>24</v>
-      </c>
       <c r="H58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I58" t="s">
-        <v>26</v>
-      </c>
-      <c r="J58">
+        <v>24</v>
+      </c>
+      <c r="J58" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58">
         <v>74.180000000000007</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>-20.22</v>
       </c>
-      <c r="L58">
+      <c r="N58">
         <v>0.96120000000000005</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>20159000</v>
       </c>
-      <c r="N58">
+      <c r="P58">
         <v>85625</v>
       </c>
-      <c r="O58">
+      <c r="Q58">
         <v>2.9508357088931399E-2</v>
       </c>
-      <c r="P58">
+      <c r="R58">
         <v>2981605660</v>
       </c>
-      <c r="Q58">
+      <c r="S58">
         <v>11809357</v>
       </c>
-      <c r="R58">
+      <c r="T58">
         <v>3.9276333891233202E-2</v>
       </c>
-      <c r="S58">
+      <c r="U58">
         <v>17.6804429515145</v>
       </c>
-      <c r="T58">
+      <c r="V58">
         <v>0.930615805426662</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>142</v>
       </c>
       <c r="B59" t="s">
         <v>143</v>
       </c>
+      <c r="C59" t="s">
+        <v>242</v>
+      </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="E59" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
         <v>29</v>
       </c>
-      <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>24</v>
-      </c>
       <c r="H59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" t="s">
         <v>30</v>
       </c>
-      <c r="I59" t="s">
-        <v>26</v>
-      </c>
-      <c r="J59">
+      <c r="K59" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59">
         <v>70.296999999999997</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>-21.95</v>
       </c>
-      <c r="L59">
+      <c r="N59">
         <v>0.96760000000000002</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>28254038</v>
       </c>
-      <c r="N59">
+      <c r="P59">
         <v>23799</v>
       </c>
-      <c r="O59">
+      <c r="Q59">
         <v>2.687272846003896E-2</v>
       </c>
-      <c r="P59">
+      <c r="R59">
         <v>4200906995</v>
       </c>
-      <c r="Q59">
+      <c r="S59">
         <v>3399219</v>
       </c>
-      <c r="R59">
+      <c r="T59">
         <v>3.46335546212726E-2</v>
       </c>
-      <c r="S59">
+      <c r="U59">
         <v>17.544357908695599</v>
       </c>
-      <c r="T59">
+      <c r="V59">
         <v>0.95286265108850199</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" t="s">
+        <v>35</v>
+      </c>
+      <c r="K61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>148</v>
       </c>
-      <c r="C61" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D62" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
         <v>22</v>
       </c>
-      <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s">
-        <v>24</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="H62" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" t="s">
         <v>35</v>
       </c>
-      <c r="I61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+      <c r="K62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" t="s">
+        <v>213</v>
+      </c>
+      <c r="E63" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" t="s">
+        <v>144</v>
+      </c>
+      <c r="F64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" t="s">
+        <v>220</v>
+      </c>
+      <c r="E65" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" t="s">
+        <v>35</v>
+      </c>
+      <c r="K65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" t="s">
+        <v>223</v>
+      </c>
+      <c r="E66" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" t="s">
+        <v>228</v>
+      </c>
+      <c r="E67" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" t="s">
+        <v>231</v>
+      </c>
+      <c r="E68" t="s">
+        <v>144</v>
+      </c>
+      <c r="F68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" t="s">
+        <v>23</v>
+      </c>
+      <c r="I68" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" t="s">
+        <v>235</v>
+      </c>
+      <c r="E69" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" t="s">
+        <v>237</v>
+      </c>
+      <c r="E70" t="s">
+        <v>144</v>
+      </c>
+      <c r="F70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" t="s">
+        <v>23</v>
+      </c>
+      <c r="I70" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" t="s">
+        <v>239</v>
+      </c>
+      <c r="E71" t="s">
+        <v>144</v>
+      </c>
+      <c r="F71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" t="s">
+        <v>24</v>
+      </c>
+      <c r="J71" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" t="s">
+        <v>144</v>
+      </c>
+      <c r="F72" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" t="s">
+        <v>24</v>
+      </c>
+      <c r="J72" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" t="s">
+        <v>25</v>
+      </c>
+      <c r="K73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" t="s">
+        <v>23</v>
+      </c>
+      <c r="I74" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75" t="s">
+        <v>172</v>
+      </c>
+      <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75" t="s">
+        <v>25</v>
+      </c>
+      <c r="K75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D76" t="s">
+        <v>174</v>
+      </c>
+      <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" t="s">
+        <v>25</v>
+      </c>
+      <c r="K76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B77" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D77" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" t="s">
+        <v>35</v>
+      </c>
+      <c r="K77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B78" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D78" t="s">
+        <v>183</v>
+      </c>
+      <c r="E78" t="s">
+        <v>144</v>
+      </c>
+      <c r="F78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J78" t="s">
+        <v>25</v>
+      </c>
+      <c r="K78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B79" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D79" t="s">
+        <v>185</v>
+      </c>
+      <c r="E79" t="s">
+        <v>280</v>
+      </c>
+      <c r="F79" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" t="s">
+        <v>24</v>
+      </c>
+      <c r="J79" t="s">
+        <v>25</v>
+      </c>
+      <c r="K79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D80" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80" t="s">
+        <v>280</v>
+      </c>
+      <c r="F80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" t="s">
+        <v>23</v>
+      </c>
+      <c r="I80" t="s">
+        <v>24</v>
+      </c>
+      <c r="J80" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" t="s">
+        <v>194</v>
+      </c>
+      <c r="E81" t="s">
+        <v>144</v>
+      </c>
+      <c r="F81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81" t="s">
+        <v>35</v>
+      </c>
+      <c r="K81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B82" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" t="s">
+        <v>211</v>
+      </c>
+      <c r="E82" t="s">
         <v>149</v>
       </c>
-      <c r="C62" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="F82" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
         <v>22</v>
       </c>
-      <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="H82" t="s">
+        <v>23</v>
+      </c>
+      <c r="I82" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" t="s">
+        <v>25</v>
+      </c>
+      <c r="K82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B83" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" t="s">
+        <v>210</v>
+      </c>
+      <c r="E83" t="s">
+        <v>149</v>
+      </c>
+      <c r="F83" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83" t="s">
+        <v>24</v>
+      </c>
+      <c r="J83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B84" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" t="s">
+        <v>234</v>
+      </c>
+      <c r="E84" t="s">
+        <v>149</v>
+      </c>
+      <c r="F84" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" t="s">
+        <v>23</v>
+      </c>
+      <c r="I84" t="s">
+        <v>24</v>
+      </c>
+      <c r="J84" t="s">
         <v>35</v>
       </c>
-      <c r="I62" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" t="s">
-        <v>22</v>
-      </c>
-      <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63" t="s">
-        <v>25</v>
-      </c>
-      <c r="I63" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>152</v>
-      </c>
-      <c r="C64" t="s">
-        <v>145</v>
-      </c>
-      <c r="D64" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I64" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>153</v>
-      </c>
-      <c r="C65" t="s">
-        <v>145</v>
-      </c>
-      <c r="D65" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>24</v>
-      </c>
-      <c r="H65" t="s">
-        <v>35</v>
-      </c>
-      <c r="I65" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C66" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" t="s">
-        <v>21</v>
-      </c>
-      <c r="E66" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
-      <c r="H66" t="s">
-        <v>25</v>
-      </c>
-      <c r="I66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>155</v>
-      </c>
-      <c r="C67" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>24</v>
-      </c>
-      <c r="H67" t="s">
-        <v>25</v>
-      </c>
-      <c r="I67" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
-      <c r="H68" t="s">
-        <v>25</v>
-      </c>
-      <c r="I68" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" t="s">
-        <v>145</v>
-      </c>
-      <c r="D69" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" t="s">
-        <v>22</v>
-      </c>
-      <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s">
-        <v>24</v>
-      </c>
-      <c r="H69" t="s">
-        <v>25</v>
-      </c>
-      <c r="I69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" t="s">
-        <v>24</v>
-      </c>
-      <c r="H70" t="s">
-        <v>25</v>
-      </c>
-      <c r="I70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>159</v>
-      </c>
-      <c r="C71" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" t="s">
-        <v>22</v>
-      </c>
-      <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H71" t="s">
-        <v>25</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="K84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B85" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85" t="s">
+        <v>259</v>
+      </c>
+      <c r="D85" t="s">
+        <v>149</v>
+      </c>
+      <c r="E85" t="s">
+        <v>149</v>
+      </c>
+      <c r="F85" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>29</v>
+      </c>
+      <c r="H85" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" t="s">
+        <v>24</v>
+      </c>
+      <c r="J85" t="s">
+        <v>260</v>
+      </c>
+      <c r="K85" t="s">
         <v>26</v>
       </c>
     </row>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elsa/Desktop/THESIS/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3EAD3C-5B80-404C-A593-67E43B205C33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8EA363-2EC0-934E-B75C-C3D771135CA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="500" windowWidth="18360" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12300" yWindow="500" windowWidth="16420" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="290">
   <si>
     <t>sample</t>
   </si>
@@ -562,6 +562,9 @@
     <t>IF23</t>
   </si>
   <si>
+    <t>IF24</t>
+  </si>
+  <si>
     <t>IF25</t>
   </si>
   <si>
@@ -814,6 +817,9 @@
     <t>Q39</t>
   </si>
   <si>
+    <t>Q40</t>
+  </si>
+  <si>
     <t>Q51</t>
   </si>
   <si>
@@ -844,9 +850,6 @@
     <t>Q80</t>
   </si>
   <si>
-    <t>Q40 /Q81</t>
-  </si>
-  <si>
     <t>Q82</t>
   </si>
   <si>
@@ -856,22 +859,37 @@
     <t>Q84</t>
   </si>
   <si>
-    <t>IF24 / IF35</t>
-  </si>
-  <si>
-    <t>cryptosporidium, t leonina</t>
-  </si>
-  <si>
     <t>t leonina</t>
   </si>
   <si>
-    <t>t leonina, sarcocystis, cryptosporidium, giardia</t>
-  </si>
-  <si>
-    <t>t leonina, sarcocystis, cryptosporidium</t>
-  </si>
-  <si>
-    <t>t leonina, cryptosporidium</t>
+    <t xml:space="preserve">Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF3 </t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>IF2</t>
+  </si>
+  <si>
+    <t>sarcocystis</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>parasites</t>
   </si>
 </sst>
 </file>
@@ -916,13 +934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,13 +962,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1289,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1301,12 +1319,12 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="5" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1314,67 +1332,79 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1382,64 +1412,76 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
         <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2">
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2">
         <v>74.180000000000007</v>
       </c>
-      <c r="M2">
+      <c r="Q2">
         <v>-20.22</v>
       </c>
-      <c r="N2">
+      <c r="R2">
         <v>0.88040000000000007</v>
       </c>
-      <c r="O2">
+      <c r="S2">
         <v>20426020</v>
       </c>
-      <c r="P2">
+      <c r="T2">
         <v>457627</v>
       </c>
-      <c r="Q2">
+      <c r="U2">
         <v>2.7562802261711709E-2</v>
       </c>
-      <c r="R2">
+      <c r="V2">
         <v>2959847460</v>
       </c>
-      <c r="S2">
+      <c r="W2">
         <v>58320006</v>
       </c>
-      <c r="T2">
+      <c r="X2">
         <v>4.2078579856506433E-2</v>
       </c>
-      <c r="U2">
+      <c r="Y2">
         <v>17.837406637468799</v>
       </c>
-      <c r="V2">
+      <c r="Z2">
         <v>0.92684178963504604</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1447,67 +1489,79 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
         <v>144</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3">
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3">
         <v>70.296999999999997</v>
       </c>
-      <c r="M3">
+      <c r="Q3">
         <v>-21.95</v>
       </c>
-      <c r="N3">
+      <c r="R3">
         <v>0.89430000000000009</v>
       </c>
-      <c r="O3">
+      <c r="S3">
         <v>16221522</v>
       </c>
-      <c r="P3">
+      <c r="T3">
         <v>926947</v>
       </c>
-      <c r="Q3">
+      <c r="U3">
         <v>2.1411580887343181E-2</v>
       </c>
-      <c r="R3">
+      <c r="V3">
         <v>2272213607</v>
       </c>
-      <c r="S3">
+      <c r="W3">
         <v>139669644</v>
       </c>
-      <c r="T3">
+      <c r="X3">
         <v>2.9996068317804329E-2</v>
       </c>
-      <c r="U3">
+      <c r="Y3">
         <v>16.915521195059799</v>
       </c>
-      <c r="V3">
+      <c r="Z3">
         <v>0.94696560326516599</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1515,64 +1569,76 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E4" t="s">
         <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4">
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4">
         <v>74.180000000000007</v>
       </c>
-      <c r="M4">
+      <c r="Q4">
         <v>-20.22</v>
       </c>
-      <c r="N4">
+      <c r="R4">
         <v>0.93720000000000003</v>
       </c>
-      <c r="O4">
+      <c r="S4">
         <v>35502248</v>
       </c>
-      <c r="P4">
+      <c r="T4">
         <v>32824</v>
       </c>
-      <c r="Q4">
+      <c r="U4">
         <v>2.5265709470478789E-2</v>
       </c>
-      <c r="R4">
+      <c r="V4">
         <v>5277583976</v>
       </c>
-      <c r="S4">
+      <c r="W4">
         <v>4200157</v>
       </c>
-      <c r="T4">
+      <c r="X4">
         <v>3.3237536655925333E-2</v>
       </c>
-      <c r="U4">
+      <c r="Y4">
         <v>17.754009496942398</v>
       </c>
-      <c r="V4">
+      <c r="Z4">
         <v>0.95768245525360296</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1580,64 +1646,76 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E5" t="s">
         <v>149</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="G5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
         <v>35</v>
       </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5">
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5">
         <v>74.180000000000007</v>
       </c>
-      <c r="M5">
+      <c r="Q5">
         <v>-20.22</v>
       </c>
-      <c r="N5">
+      <c r="R5">
         <v>0.98409999999999997</v>
       </c>
-      <c r="O5">
+      <c r="S5">
         <v>33535230</v>
       </c>
-      <c r="P5">
+      <c r="T5">
         <v>311697</v>
       </c>
-      <c r="Q5">
+      <c r="U5">
         <v>2.0852615898312998E-2</v>
       </c>
-      <c r="R5">
+      <c r="V5">
         <v>4933362100</v>
       </c>
-      <c r="S5">
+      <c r="W5">
         <v>42674539</v>
       </c>
-      <c r="T5">
+      <c r="X5">
         <v>3.1411989069206607E-2</v>
       </c>
-      <c r="U5">
+      <c r="Y5">
         <v>17.734612243454201</v>
       </c>
-      <c r="V5">
+      <c r="Z5">
         <v>0.95280755439438003</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1645,197 +1723,225 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D6" t="s">
         <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>288</v>
       </c>
       <c r="G6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I6" t="s">
+        <v>287</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
         <v>35</v>
       </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6">
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6">
         <v>70.296999999999997</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
         <v>-21.95</v>
       </c>
-      <c r="N6">
+      <c r="R6">
         <v>0.8538</v>
       </c>
-      <c r="O6">
+      <c r="S6">
         <v>52828344</v>
       </c>
-      <c r="P6">
+      <c r="T6">
         <v>461682</v>
       </c>
-      <c r="Q6">
+      <c r="U6">
         <v>2.4064699352441151E-2</v>
       </c>
-      <c r="R6">
+      <c r="V6">
         <v>7793182719</v>
       </c>
-      <c r="S6">
+      <c r="W6">
         <v>62257650</v>
       </c>
-      <c r="T6">
+      <c r="X6">
         <v>3.2539355736889368E-2</v>
       </c>
-      <c r="U6">
+      <c r="Y6">
         <v>17.6127621209232</v>
       </c>
-      <c r="V6">
+      <c r="Z6">
         <v>0.97164247148923499</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7">
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7">
         <v>70.296999999999997</v>
       </c>
-      <c r="M7">
+      <c r="Q7">
         <v>-21.95</v>
       </c>
-      <c r="N7">
+      <c r="R7">
         <v>0.91439999999999999</v>
       </c>
-      <c r="O7">
+      <c r="S7">
         <v>41246332</v>
       </c>
-      <c r="P7">
+      <c r="T7">
         <v>3685371</v>
       </c>
-      <c r="Q7">
+      <c r="U7">
         <v>1.8620880065806089E-2</v>
       </c>
-      <c r="R7">
+      <c r="V7">
         <v>5583636504</v>
       </c>
-      <c r="S7">
+      <c r="W7">
         <v>559944877</v>
       </c>
-      <c r="T7">
+      <c r="X7">
         <v>2.5500014735875261E-2</v>
       </c>
-      <c r="U7">
+      <c r="Y7">
         <v>17.728899906498398</v>
       </c>
-      <c r="V7">
+      <c r="Z7">
         <v>0.95098001098575202</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8">
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8">
         <v>70.296999999999997</v>
       </c>
-      <c r="M8">
+      <c r="Q8">
         <v>-21.95</v>
       </c>
-      <c r="N8">
+      <c r="R8">
         <v>0.9284</v>
       </c>
-      <c r="O8">
+      <c r="S8">
         <v>73156044</v>
       </c>
-      <c r="P8">
+      <c r="T8">
         <v>322553</v>
       </c>
-      <c r="Q8">
+      <c r="U8">
         <v>1.692633703232338E-2</v>
       </c>
-      <c r="R8">
+      <c r="V8">
         <v>10841350545</v>
       </c>
-      <c r="S8">
+      <c r="W8">
         <v>48449012</v>
       </c>
-      <c r="T8">
+      <c r="X8">
         <v>2.4416434228931919E-2</v>
       </c>
-      <c r="U8">
+      <c r="Y8">
         <v>17.317285313442</v>
       </c>
-      <c r="V8">
+      <c r="Z8">
         <v>0.98312104108561404</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1843,67 +1949,79 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
         <v>29</v>
       </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9">
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9">
         <v>70.296999999999997</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
         <v>-21.95</v>
       </c>
-      <c r="N9">
+      <c r="R9">
         <v>0.81010000000000004</v>
       </c>
-      <c r="O9">
+      <c r="S9">
         <v>54533610</v>
       </c>
-      <c r="P9">
+      <c r="T9">
         <v>4843</v>
       </c>
-      <c r="Q9">
+      <c r="U9">
         <v>1.9745790695337662E-2</v>
       </c>
-      <c r="R9">
+      <c r="V9">
         <v>8099878023</v>
       </c>
-      <c r="S9">
+      <c r="W9">
         <v>724022</v>
       </c>
-      <c r="T9">
+      <c r="X9">
         <v>2.926540745383677E-2</v>
       </c>
-      <c r="U9">
+      <c r="Y9">
         <v>17.587716459006501</v>
       </c>
-      <c r="V9">
+      <c r="Z9">
         <v>0.97617861605050604</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1911,64 +2029,76 @@
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E10" t="s">
         <v>149</v>
       </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
         <v>22</v>
       </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
         <v>25</v>
       </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10">
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10">
         <v>74.180000000000007</v>
       </c>
-      <c r="M10">
+      <c r="Q10">
         <v>-20.22</v>
       </c>
-      <c r="N10">
+      <c r="R10">
         <v>0.97699999999999998</v>
       </c>
-      <c r="O10">
+      <c r="S10">
         <v>28710272</v>
       </c>
-      <c r="P10">
+      <c r="T10">
         <v>35565</v>
       </c>
-      <c r="Q10">
+      <c r="U10">
         <v>1.6726855472957491E-2</v>
       </c>
-      <c r="R10">
+      <c r="V10">
         <v>4267981994</v>
       </c>
-      <c r="S10">
+      <c r="W10">
         <v>4675717</v>
       </c>
-      <c r="T10">
+      <c r="X10">
         <v>2.4463071850454599E-2</v>
       </c>
-      <c r="U10">
+      <c r="Y10">
         <v>17.533032579815099</v>
       </c>
-      <c r="V10">
+      <c r="Z10">
         <v>0.95457050025446799</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1976,64 +2106,76 @@
         <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E11" t="s">
         <v>144</v>
       </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
         <v>22</v>
       </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
         <v>25</v>
       </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11">
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11">
         <v>74.180000000000007</v>
       </c>
-      <c r="M11">
+      <c r="Q11">
         <v>-20.22</v>
       </c>
-      <c r="N11">
+      <c r="R11">
         <v>0.91839999999999999</v>
       </c>
-      <c r="O11">
+      <c r="S11">
         <v>32839346</v>
       </c>
-      <c r="P11">
+      <c r="T11">
         <v>231401</v>
       </c>
-      <c r="Q11">
+      <c r="U11">
         <v>1.551736222469691E-2</v>
       </c>
-      <c r="R11">
+      <c r="V11">
         <v>4836853424</v>
       </c>
-      <c r="S11">
+      <c r="W11">
         <v>34046436</v>
       </c>
-      <c r="T11">
+      <c r="X11">
         <v>2.650997931725874E-2</v>
       </c>
-      <c r="U11">
+      <c r="Y11">
         <v>17.087949784273199</v>
       </c>
-      <c r="V11">
+      <c r="Z11">
         <v>0.97536317269567596</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -2041,126 +2183,142 @@
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
         <v>22</v>
       </c>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
         <v>25</v>
       </c>
-      <c r="K12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12">
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12">
         <v>74.180000000000007</v>
       </c>
-      <c r="M12">
+      <c r="Q12">
         <v>-20.22</v>
       </c>
-      <c r="N12">
+      <c r="R12">
         <v>0.94950000000000001</v>
       </c>
-      <c r="O12">
+      <c r="S12">
         <v>40659506</v>
       </c>
-      <c r="P12">
+      <c r="T12">
         <v>391635</v>
       </c>
-      <c r="Q12">
+      <c r="U12">
         <v>3.2377480746790921E-2</v>
       </c>
-      <c r="R12">
+      <c r="V12">
         <v>5979999947</v>
       </c>
-      <c r="S12">
+      <c r="W12">
         <v>52717026</v>
       </c>
-      <c r="T12">
+      <c r="X12">
         <v>4.2881830166873518E-2</v>
       </c>
-      <c r="U12">
+      <c r="Y12">
         <v>17.212077712279299</v>
       </c>
-      <c r="V12">
+      <c r="Z12">
         <v>0.981692634472487</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
         <v>35</v>
       </c>
-      <c r="K13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13">
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13">
         <v>70.296999999999997</v>
       </c>
-      <c r="M13">
+      <c r="Q13">
         <v>-21.95</v>
       </c>
-      <c r="N13">
+      <c r="R13">
         <v>0.94769999999999999</v>
       </c>
-      <c r="O13">
+      <c r="S13">
         <v>28939138</v>
       </c>
-      <c r="P13">
+      <c r="T13">
         <v>6340442</v>
       </c>
-      <c r="Q13">
+      <c r="U13">
         <v>3.3157020110532121E-2</v>
       </c>
-      <c r="R13">
+      <c r="V13">
         <v>3333332529</v>
       </c>
-      <c r="S13">
+      <c r="W13">
         <v>966524804</v>
       </c>
-      <c r="T13">
+      <c r="X13">
         <v>4.2291935362806288E-2</v>
       </c>
-      <c r="U13">
+      <c r="Y13">
         <v>17.802521040893001</v>
       </c>
-      <c r="V13">
+      <c r="Z13">
         <v>0.94351027924792297</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2168,64 +2326,76 @@
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E14" t="s">
         <v>144</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
         <v>22</v>
       </c>
-      <c r="H14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
         <v>25</v>
       </c>
-      <c r="K14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14">
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14">
         <v>74.180000000000007</v>
       </c>
-      <c r="M14">
+      <c r="Q14">
         <v>-20.22</v>
       </c>
-      <c r="N14">
+      <c r="R14">
         <v>0.94310000000000005</v>
       </c>
-      <c r="O14">
+      <c r="S14">
         <v>135880048</v>
       </c>
-      <c r="P14">
+      <c r="T14">
         <v>454799</v>
       </c>
-      <c r="Q14">
+      <c r="U14">
         <v>1.481270768191034E-2</v>
       </c>
-      <c r="R14">
+      <c r="V14">
         <v>20115590239</v>
       </c>
-      <c r="S14">
+      <c r="W14">
         <v>65641331</v>
       </c>
-      <c r="T14">
+      <c r="X14">
         <v>2.4517424069369961E-2</v>
       </c>
-      <c r="U14">
+      <c r="Y14">
         <v>17.648939807191901</v>
       </c>
-      <c r="V14">
+      <c r="Z14">
         <v>0.99044314709455505</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2233,135 +2403,159 @@
         <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
         <v>25</v>
       </c>
-      <c r="K15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15">
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15">
         <v>70.296999999999997</v>
       </c>
-      <c r="M15">
+      <c r="Q15">
         <v>-21.95</v>
       </c>
-      <c r="N15">
+      <c r="R15">
         <v>0.81659999999999999</v>
       </c>
-      <c r="O15">
+      <c r="S15">
         <v>19841212</v>
       </c>
-      <c r="P15">
+      <c r="T15">
         <v>5222</v>
       </c>
-      <c r="Q15">
+      <c r="U15">
         <v>1.306858127624921E-2</v>
       </c>
-      <c r="R15">
+      <c r="V15">
         <v>2945240633</v>
       </c>
-      <c r="S15">
+      <c r="W15">
         <v>772127</v>
       </c>
-      <c r="T15">
+      <c r="X15">
         <v>2.3072934319713689E-2</v>
       </c>
-      <c r="U15">
+      <c r="Y15">
         <v>15.9583650618485</v>
       </c>
-      <c r="V15">
+      <c r="Z15">
         <v>0.94059622326915504</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="C16" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
         <v>29</v>
       </c>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
         <v>35</v>
       </c>
-      <c r="K16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16">
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16">
         <v>70.296999999999997</v>
       </c>
-      <c r="M16">
+      <c r="Q16">
         <v>-21.95</v>
       </c>
-      <c r="N16">
+      <c r="R16">
         <v>0.86219999999999997</v>
       </c>
-      <c r="O16">
+      <c r="S16">
         <v>43274456</v>
       </c>
-      <c r="P16">
+      <c r="T16">
         <v>1099182</v>
       </c>
-      <c r="Q16">
+      <c r="U16">
         <v>2.0353407055599619E-2</v>
       </c>
-      <c r="R16">
+      <c r="V16">
         <v>6265662956</v>
       </c>
-      <c r="S16">
+      <c r="W16">
         <v>166601956</v>
       </c>
-      <c r="T16">
+      <c r="X16">
         <v>2.9243116546381231E-2</v>
       </c>
-      <c r="U16">
+      <c r="Y16">
         <v>17.210250196668799</v>
       </c>
-      <c r="V16">
+      <c r="Z16">
         <v>0.97144998505782298</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -2369,129 +2563,159 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D17" t="s">
         <v>166</v>
       </c>
       <c r="E17" t="s">
-        <v>281</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
         <v>29</v>
       </c>
-      <c r="H17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
         <v>35</v>
       </c>
-      <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17">
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17">
         <v>70.296999999999997</v>
       </c>
-      <c r="M17">
+      <c r="Q17">
         <v>-21.95</v>
       </c>
-      <c r="N17">
+      <c r="R17">
         <v>0.91820000000000002</v>
       </c>
-      <c r="O17">
+      <c r="S17">
         <v>49306316</v>
       </c>
-      <c r="P17">
+      <c r="T17">
         <v>122919</v>
       </c>
-      <c r="Q17">
+      <c r="U17">
         <v>2.6681000720124359E-2</v>
       </c>
-      <c r="R17">
+      <c r="V17">
         <v>7318063842</v>
       </c>
-      <c r="S17">
+      <c r="W17">
         <v>18606552</v>
       </c>
-      <c r="T17">
+      <c r="X17">
         <v>3.4481953463545323E-2</v>
       </c>
-      <c r="U17">
+      <c r="Y17">
         <v>17.9834042807061</v>
       </c>
-      <c r="V17">
+      <c r="Z17">
         <v>0.96087604066557097</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="C18" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
         <v>29</v>
       </c>
-      <c r="H18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
         <v>25</v>
       </c>
-      <c r="K18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18">
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18">
         <v>70.296999999999997</v>
       </c>
-      <c r="M18">
+      <c r="Q18">
         <v>-21.95</v>
       </c>
-      <c r="N18">
+      <c r="R18">
         <v>0.86549999999999994</v>
       </c>
-      <c r="O18">
+      <c r="S18">
         <v>43347656</v>
       </c>
-      <c r="P18">
+      <c r="T18">
         <v>294578</v>
       </c>
-      <c r="Q18">
+      <c r="U18">
         <v>2.2157860362998268E-2</v>
       </c>
-      <c r="R18">
+      <c r="V18">
         <v>6400784626</v>
       </c>
-      <c r="S18">
+      <c r="W18">
         <v>43510685</v>
       </c>
-      <c r="T18">
+      <c r="X18">
         <v>3.085824442872798E-2</v>
       </c>
-      <c r="U18">
+      <c r="Y18">
         <v>17.5378006583597</v>
       </c>
-      <c r="V18">
+      <c r="Z18">
         <v>0.95705830455683005</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -2499,67 +2723,79 @@
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
         <v>144</v>
       </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
         <v>29</v>
       </c>
-      <c r="H19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" t="s">
         <v>25</v>
       </c>
-      <c r="K19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19">
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19">
         <v>70.296999999999997</v>
       </c>
-      <c r="M19">
+      <c r="Q19">
         <v>-21.95</v>
       </c>
-      <c r="N19">
+      <c r="R19">
         <v>0.97719999999999996</v>
       </c>
-      <c r="O19">
+      <c r="S19">
         <v>37073948</v>
       </c>
-      <c r="P19">
+      <c r="T19">
         <v>6673135</v>
       </c>
-      <c r="Q19">
+      <c r="U19">
         <v>1.756674945574432E-2</v>
       </c>
-      <c r="R19">
+      <c r="V19">
         <v>4493685257</v>
       </c>
-      <c r="S19">
+      <c r="W19">
         <v>1011389534</v>
       </c>
-      <c r="T19">
+      <c r="X19">
         <v>2.746289273690361E-2</v>
       </c>
-      <c r="U19">
+      <c r="Y19">
         <v>17.838230282033599</v>
       </c>
-      <c r="V19">
+      <c r="Z19">
         <v>0.94843559447155401</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -2567,64 +2803,76 @@
         <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E20" t="s">
         <v>149</v>
       </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F20" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
         <v>22</v>
       </c>
-      <c r="H20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
         <v>25</v>
       </c>
-      <c r="K20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20">
+      <c r="O20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20">
         <v>74.180000000000007</v>
       </c>
-      <c r="M20">
+      <c r="Q20">
         <v>-20.22</v>
       </c>
-      <c r="N20">
+      <c r="R20">
         <v>0.92210000000000003</v>
       </c>
-      <c r="O20">
+      <c r="S20">
         <v>35036088</v>
       </c>
-      <c r="P20">
+      <c r="T20">
         <v>84863</v>
       </c>
-      <c r="Q20">
+      <c r="U20">
         <v>1.8573662478033048E-2</v>
       </c>
-      <c r="R20">
+      <c r="V20">
         <v>5194532574</v>
       </c>
-      <c r="S20">
+      <c r="W20">
         <v>12305564</v>
       </c>
-      <c r="T20">
+      <c r="X20">
         <v>2.764485124651328E-2</v>
       </c>
-      <c r="U20">
+      <c r="Y20">
         <v>16.7536244078455</v>
       </c>
-      <c r="V20">
+      <c r="Z20">
         <v>0.98170179154668902</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -2632,67 +2880,79 @@
         <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
         <v>144</v>
       </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F21" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
         <v>29</v>
       </c>
-      <c r="H21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" t="s">
         <v>25</v>
       </c>
-      <c r="K21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21">
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21">
         <v>70.296999999999997</v>
       </c>
-      <c r="M21">
+      <c r="Q21">
         <v>-21.95</v>
       </c>
-      <c r="N21">
+      <c r="R21">
         <v>0.90839999999999999</v>
       </c>
-      <c r="O21">
+      <c r="S21">
         <v>41476756</v>
       </c>
-      <c r="P21">
+      <c r="T21">
         <v>17751</v>
       </c>
-      <c r="Q21">
+      <c r="U21">
         <v>2.333705301165612E-2</v>
       </c>
-      <c r="R21">
+      <c r="V21">
         <v>6144454295</v>
       </c>
-      <c r="S21">
+      <c r="W21">
         <v>1994390</v>
       </c>
-      <c r="T21">
+      <c r="X21">
         <v>3.5120829892493537E-2</v>
       </c>
-      <c r="U21">
+      <c r="Y21">
         <v>17.420983133656801</v>
       </c>
-      <c r="V21">
+      <c r="Z21">
         <v>0.98031898241221904</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -2700,126 +2960,142 @@
         <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E22" t="s">
         <v>144</v>
       </c>
-      <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F22" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
         <v>22</v>
       </c>
-      <c r="H22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" t="s">
         <v>25</v>
       </c>
-      <c r="K22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22">
+      <c r="O22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22">
         <v>74.180000000000007</v>
       </c>
-      <c r="M22">
+      <c r="Q22">
         <v>-20.22</v>
       </c>
-      <c r="N22">
+      <c r="R22">
         <v>0.95879999999999999</v>
       </c>
-      <c r="O22">
+      <c r="S22">
         <v>23288570</v>
       </c>
-      <c r="P22">
+      <c r="T22">
         <v>93659</v>
       </c>
-      <c r="Q22">
+      <c r="U22">
         <v>3.9581725149104963E-2</v>
       </c>
-      <c r="R22">
+      <c r="V22">
         <v>3446327302</v>
       </c>
-      <c r="S22">
+      <c r="W22">
         <v>11778817</v>
       </c>
-      <c r="T22">
+      <c r="X22">
         <v>4.9253685946566872E-2</v>
       </c>
-      <c r="U22">
+      <c r="Y22">
         <v>16.886952787975599</v>
       </c>
-      <c r="V22">
+      <c r="Z22">
         <v>0.96630651838300796</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
         <v>29</v>
       </c>
-      <c r="H23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" t="s">
         <v>25</v>
       </c>
-      <c r="K23" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23">
+      <c r="O23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23">
         <v>70.296999999999997</v>
       </c>
-      <c r="M23">
+      <c r="Q23">
         <v>-21.95</v>
       </c>
-      <c r="N23">
+      <c r="R23">
         <v>0.84310000000000007</v>
       </c>
-      <c r="O23">
+      <c r="S23">
         <v>21481532</v>
       </c>
-      <c r="P23">
+      <c r="T23">
         <v>249750</v>
       </c>
-      <c r="Q23">
+      <c r="U23">
         <v>1.7417098193191819E-2</v>
       </c>
-      <c r="R23">
+      <c r="V23">
         <v>3153109649</v>
       </c>
-      <c r="S23">
+      <c r="W23">
         <v>37453172</v>
       </c>
-      <c r="T23">
+      <c r="X23">
         <v>2.7073588899495619E-2</v>
       </c>
-      <c r="U23">
+      <c r="Y23">
         <v>17.949204059123701</v>
       </c>
-      <c r="V23">
+      <c r="Z23">
         <v>0.92511078277145398</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -2827,67 +3103,79 @@
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D24" t="s">
         <v>179</v>
       </c>
       <c r="E24" t="s">
-        <v>280</v>
-      </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
         <v>29</v>
       </c>
-      <c r="H24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" t="s">
         <v>25</v>
       </c>
-      <c r="K24" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24">
+      <c r="O24" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24">
         <v>70.296999999999997</v>
       </c>
-      <c r="M24">
+      <c r="Q24">
         <v>-21.95</v>
       </c>
-      <c r="N24">
+      <c r="R24">
         <v>0.85299999999999998</v>
       </c>
-      <c r="O24">
+      <c r="S24">
         <v>42256622</v>
       </c>
-      <c r="P24">
+      <c r="T24">
         <v>17249</v>
       </c>
-      <c r="Q24">
+      <c r="U24">
         <v>1.7032929098262931E-2</v>
       </c>
-      <c r="R24">
+      <c r="V24">
         <v>6276705668</v>
       </c>
-      <c r="S24">
+      <c r="W24">
         <v>2588567</v>
       </c>
-      <c r="T24">
+      <c r="X24">
         <v>2.6213459670594848E-2</v>
       </c>
-      <c r="U24">
+      <c r="Y24">
         <v>17.102647724330801</v>
       </c>
-      <c r="V24">
+      <c r="Z24">
         <v>0.95433178592081502</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -2895,64 +3183,76 @@
         <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E25" t="s">
         <v>144</v>
       </c>
-      <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
         <v>22</v>
       </c>
-      <c r="H25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" t="s">
         <v>25</v>
       </c>
-      <c r="K25" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25">
+      <c r="O25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25">
         <v>74.180000000000007</v>
       </c>
-      <c r="M25">
+      <c r="Q25">
         <v>-20.22</v>
       </c>
-      <c r="N25">
+      <c r="R25">
         <v>0.99639999999999995</v>
       </c>
-      <c r="O25">
+      <c r="S25">
         <v>32954722</v>
       </c>
-      <c r="P25">
+      <c r="T25">
         <v>87251</v>
       </c>
-      <c r="Q25">
+      <c r="U25">
         <v>2.4042257683092649E-2</v>
       </c>
-      <c r="R25">
+      <c r="V25">
         <v>4881907472</v>
       </c>
-      <c r="S25">
+      <c r="W25">
         <v>12530735</v>
       </c>
-      <c r="T25">
+      <c r="X25">
         <v>3.3671135725085177E-2</v>
       </c>
-      <c r="U25">
+      <c r="Y25">
         <v>16.696624917066099</v>
       </c>
-      <c r="V25">
+      <c r="Z25">
         <v>0.97919245278111799</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -2960,64 +3260,76 @@
         <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E26" t="s">
         <v>144</v>
       </c>
-      <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
         <v>22</v>
       </c>
-      <c r="H26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" t="s">
         <v>25</v>
       </c>
-      <c r="K26" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26">
+      <c r="O26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26">
         <v>74.180000000000007</v>
       </c>
-      <c r="M26">
+      <c r="Q26">
         <v>-20.22</v>
       </c>
-      <c r="N26">
+      <c r="R26">
         <v>0.89159999999999995</v>
       </c>
-      <c r="O26">
+      <c r="S26">
         <v>25623632</v>
       </c>
-      <c r="P26">
+      <c r="T26">
         <v>265435</v>
       </c>
-      <c r="Q26">
+      <c r="U26">
         <v>3.4205171931211087E-2</v>
       </c>
-      <c r="R26">
+      <c r="V26">
         <v>3769676465</v>
       </c>
-      <c r="S26">
+      <c r="W26">
         <v>35874973</v>
       </c>
-      <c r="T26">
+      <c r="X26">
         <v>4.3752034119612038E-2</v>
       </c>
-      <c r="U26">
+      <c r="Y26">
         <v>16.808667142781601</v>
       </c>
-      <c r="V26">
+      <c r="Z26">
         <v>0.97688406035418895</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -3025,64 +3337,76 @@
         <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E27" t="s">
         <v>144</v>
       </c>
-      <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
         <v>22</v>
       </c>
-      <c r="H27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" t="s">
         <v>25</v>
       </c>
-      <c r="K27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27">
+      <c r="O27" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27">
         <v>74.180000000000007</v>
       </c>
-      <c r="M27">
+      <c r="Q27">
         <v>-20.22</v>
       </c>
-      <c r="N27">
+      <c r="R27">
         <v>0.93289999999999995</v>
       </c>
-      <c r="O27">
+      <c r="S27">
         <v>54511426</v>
       </c>
-      <c r="P27">
+      <c r="T27">
         <v>1862948</v>
       </c>
-      <c r="Q27">
+      <c r="U27">
         <v>1.3860728503947369E-2</v>
       </c>
-      <c r="R27">
+      <c r="V27">
         <v>7831375754</v>
       </c>
-      <c r="S27">
+      <c r="W27">
         <v>272615552</v>
       </c>
-      <c r="T27">
+      <c r="X27">
         <v>2.2631318590077609E-2</v>
       </c>
-      <c r="U27">
+      <c r="Y27">
         <v>17.880142666539999</v>
       </c>
-      <c r="V27">
+      <c r="Z27">
         <v>0.97232989379164203</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -3090,64 +3414,76 @@
         <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
       </c>
-      <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
         <v>22</v>
       </c>
-      <c r="H28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" t="s">
         <v>25</v>
       </c>
-      <c r="K28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28">
+      <c r="O28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28">
         <v>74.180000000000007</v>
       </c>
-      <c r="M28">
+      <c r="Q28">
         <v>-20.22</v>
       </c>
-      <c r="N28">
+      <c r="R28">
         <v>0.98760000000000003</v>
       </c>
-      <c r="O28">
+      <c r="S28">
         <v>59986486</v>
       </c>
-      <c r="P28">
+      <c r="T28">
         <v>92257</v>
       </c>
-      <c r="Q28">
+      <c r="U28">
         <v>2.4322293666233171E-2</v>
       </c>
-      <c r="R28">
+      <c r="V28">
         <v>8906989824</v>
       </c>
-      <c r="S28">
+      <c r="W28">
         <v>11874819</v>
       </c>
-      <c r="T28">
+      <c r="X28">
         <v>3.2900243788957173E-2</v>
       </c>
-      <c r="U28">
+      <c r="Y28">
         <v>17.4999173768548</v>
       </c>
-      <c r="V28">
+      <c r="Z28">
         <v>0.98163769185874805</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -3155,67 +3491,79 @@
         <v>83</v>
       </c>
       <c r="C29" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" t="s">
         <v>244</v>
       </c>
-      <c r="D29" t="s">
-        <v>243</v>
-      </c>
       <c r="E29" t="s">
-        <v>243</v>
-      </c>
-      <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
         <v>29</v>
       </c>
-      <c r="H29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" t="s">
         <v>25</v>
       </c>
-      <c r="K29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29">
+      <c r="O29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29">
         <v>70.296999999999997</v>
       </c>
-      <c r="M29">
+      <c r="Q29">
         <v>-21.95</v>
       </c>
-      <c r="N29">
+      <c r="R29">
         <v>0.97850000000000004</v>
       </c>
-      <c r="O29">
+      <c r="S29">
         <v>29350834</v>
       </c>
-      <c r="P29">
+      <c r="T29">
         <v>13618</v>
       </c>
-      <c r="Q29">
+      <c r="U29">
         <v>1.544430478053116E-2</v>
       </c>
-      <c r="R29">
+      <c r="V29">
         <v>4363104057</v>
       </c>
-      <c r="S29">
+      <c r="W29">
         <v>2048114</v>
       </c>
-      <c r="T29">
+      <c r="X29">
         <v>2.3824347329124411E-2</v>
       </c>
-      <c r="U29">
+      <c r="Y29">
         <v>17.2086655957525</v>
       </c>
-      <c r="V29">
+      <c r="Z29">
         <v>0.968057968944247</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -3223,67 +3571,79 @@
         <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E30" t="s">
         <v>144</v>
       </c>
-      <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
         <v>29</v>
       </c>
-      <c r="H30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" t="s">
         <v>25</v>
       </c>
-      <c r="K30" t="s">
-        <v>26</v>
-      </c>
-      <c r="L30">
+      <c r="O30" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30">
         <v>70.296999999999997</v>
       </c>
-      <c r="M30">
+      <c r="Q30">
         <v>-21.95</v>
       </c>
-      <c r="N30">
+      <c r="R30">
         <v>0.94579999999999997</v>
       </c>
-      <c r="O30">
+      <c r="S30">
         <v>47412314</v>
       </c>
-      <c r="P30">
+      <c r="T30">
         <v>1121644</v>
       </c>
-      <c r="Q30">
+      <c r="U30">
         <v>2.8106182775585849E-2</v>
       </c>
-      <c r="R30">
+      <c r="V30">
         <v>6872446871</v>
       </c>
-      <c r="S30">
+      <c r="W30">
         <v>143680261</v>
       </c>
-      <c r="T30">
+      <c r="X30">
         <v>4.1187122758690853E-2</v>
       </c>
-      <c r="U30">
+      <c r="Y30">
         <v>17.7006105041681</v>
       </c>
-      <c r="V30">
+      <c r="Z30">
         <v>0.96424290856253603</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -3291,67 +3651,79 @@
         <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D31" t="s">
         <v>178</v>
       </c>
       <c r="E31" t="s">
-        <v>282</v>
-      </c>
-      <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
+        <v>289</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
         <v>29</v>
       </c>
-      <c r="H31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" t="s">
         <v>35</v>
       </c>
-      <c r="K31" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31">
+      <c r="O31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31">
         <v>70.296999999999997</v>
       </c>
-      <c r="M31">
+      <c r="Q31">
         <v>-21.95</v>
       </c>
-      <c r="N31">
+      <c r="R31">
         <v>0.9103</v>
       </c>
-      <c r="O31">
+      <c r="S31">
         <v>18307608</v>
       </c>
-      <c r="P31">
+      <c r="T31">
         <v>125353</v>
       </c>
-      <c r="Q31">
+      <c r="U31">
         <v>2.745361526945389E-2</v>
       </c>
-      <c r="R31">
+      <c r="V31">
         <v>2705166311</v>
       </c>
-      <c r="S31">
+      <c r="W31">
         <v>17047364</v>
       </c>
-      <c r="T31">
+      <c r="X31">
         <v>3.592755241962664E-2</v>
       </c>
-      <c r="U31">
+      <c r="Y31">
         <v>17.404314951204299</v>
       </c>
-      <c r="V31">
+      <c r="Z31">
         <v>0.93927220801188505</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -3359,64 +3731,76 @@
         <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E32" t="s">
         <v>144</v>
       </c>
-      <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
         <v>22</v>
       </c>
-      <c r="H32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" t="s">
         <v>25</v>
       </c>
-      <c r="K32" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32">
+      <c r="O32" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32">
         <v>74.180000000000007</v>
       </c>
-      <c r="M32">
+      <c r="Q32">
         <v>-20.22</v>
       </c>
-      <c r="N32">
+      <c r="R32">
         <v>0.97770000000000001</v>
       </c>
-      <c r="O32">
+      <c r="S32">
         <v>43155022</v>
       </c>
-      <c r="P32">
+      <c r="T32">
         <v>408258</v>
       </c>
-      <c r="Q32">
+      <c r="U32">
         <v>1.7136144578368099E-2</v>
       </c>
-      <c r="R32">
+      <c r="V32">
         <v>6362870675</v>
       </c>
-      <c r="S32">
+      <c r="W32">
         <v>62244382</v>
       </c>
-      <c r="T32">
+      <c r="X32">
         <v>2.4445195671456529E-2</v>
       </c>
-      <c r="U32">
+      <c r="Y32">
         <v>17.195437115489799</v>
       </c>
-      <c r="V32">
+      <c r="Z32">
         <v>0.97636185294030897</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -3424,64 +3808,76 @@
         <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E33" t="s">
         <v>144</v>
       </c>
-      <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
         <v>22</v>
       </c>
-      <c r="H33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" t="s">
         <v>25</v>
       </c>
-      <c r="K33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L33">
+      <c r="O33" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33">
         <v>74.180000000000007</v>
       </c>
-      <c r="M33">
+      <c r="Q33">
         <v>-20.22</v>
       </c>
-      <c r="N33">
+      <c r="R33">
         <v>0.93589999999999995</v>
       </c>
-      <c r="O33">
+      <c r="S33">
         <v>36203472</v>
       </c>
-      <c r="P33">
+      <c r="T33">
         <v>687017</v>
       </c>
-      <c r="Q33">
+      <c r="U33">
         <v>1.6817275633827289E-2</v>
       </c>
-      <c r="R33">
+      <c r="V33">
         <v>5278931308</v>
       </c>
-      <c r="S33">
+      <c r="W33">
         <v>97149032</v>
       </c>
-      <c r="T33">
+      <c r="X33">
         <v>2.667358992665669E-2</v>
       </c>
-      <c r="U33">
+      <c r="Y33">
         <v>17.3550442814165</v>
       </c>
-      <c r="V33">
+      <c r="Z33">
         <v>0.966370712932483</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -3489,67 +3885,79 @@
         <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E34" t="s">
         <v>144</v>
       </c>
-      <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F34" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
         <v>29</v>
       </c>
-      <c r="H34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="L34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" t="s">
         <v>25</v>
       </c>
-      <c r="K34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34">
+      <c r="O34" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34">
         <v>70.296999999999997</v>
       </c>
-      <c r="M34">
+      <c r="Q34">
         <v>-21.95</v>
       </c>
-      <c r="N34">
+      <c r="R34">
         <v>0.92279999999999995</v>
       </c>
-      <c r="O34">
+      <c r="S34">
         <v>46722970</v>
       </c>
-      <c r="P34">
+      <c r="T34">
         <v>2289851</v>
       </c>
-      <c r="Q34">
+      <c r="U34">
         <v>1.961933432859142E-2</v>
       </c>
-      <c r="R34">
+      <c r="V34">
         <v>6607302774</v>
       </c>
-      <c r="S34">
+      <c r="W34">
         <v>346411417</v>
       </c>
-      <c r="T34">
+      <c r="X34">
         <v>2.727545680974475E-2</v>
       </c>
-      <c r="U34">
+      <c r="Y34">
         <v>16.9678720193847</v>
       </c>
-      <c r="V34">
+      <c r="Z34">
         <v>0.97861540265040703</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -3557,64 +3965,76 @@
         <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E35" t="s">
         <v>144</v>
       </c>
-      <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" t="s">
         <v>22</v>
       </c>
-      <c r="H35" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="L35" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" t="s">
         <v>25</v>
       </c>
-      <c r="K35" t="s">
-        <v>26</v>
-      </c>
-      <c r="L35">
+      <c r="O35" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35">
         <v>74.180000000000007</v>
       </c>
-      <c r="M35">
+      <c r="Q35">
         <v>-20.22</v>
       </c>
-      <c r="N35">
+      <c r="R35">
         <v>0.95109999999999995</v>
       </c>
-      <c r="O35">
+      <c r="S35">
         <v>46828184</v>
       </c>
-      <c r="P35">
+      <c r="T35">
         <v>6585835</v>
       </c>
-      <c r="Q35">
+      <c r="U35">
         <v>2.7920420482758002E-2</v>
       </c>
-      <c r="R35">
+      <c r="V35">
         <v>5963392503</v>
       </c>
-      <c r="S35">
+      <c r="W35">
         <v>995848373</v>
       </c>
-      <c r="T35">
+      <c r="X35">
         <v>3.6913902889296642E-2</v>
       </c>
-      <c r="U35">
+      <c r="Y35">
         <v>17.7104139490636</v>
       </c>
-      <c r="V35">
+      <c r="Z35">
         <v>0.96499502770359002</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -3622,64 +4042,76 @@
         <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
-      </c>
-      <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
+        <v>289</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" t="s">
         <v>22</v>
       </c>
-      <c r="H36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" t="s">
         <v>25</v>
       </c>
-      <c r="K36" t="s">
-        <v>26</v>
-      </c>
-      <c r="L36">
+      <c r="O36" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36">
         <v>74.180000000000007</v>
       </c>
-      <c r="M36">
+      <c r="Q36">
         <v>-20.22</v>
       </c>
-      <c r="N36">
+      <c r="R36">
         <v>0.89780000000000004</v>
       </c>
-      <c r="O36">
+      <c r="S36">
         <v>13469414</v>
       </c>
-      <c r="P36">
+      <c r="T36">
         <v>93603</v>
       </c>
-      <c r="Q36">
+      <c r="U36">
         <v>2.3811342573635149E-2</v>
       </c>
-      <c r="R36">
+      <c r="V36">
         <v>1983878444</v>
       </c>
-      <c r="S36">
+      <c r="W36">
         <v>11457362</v>
       </c>
-      <c r="T36">
+      <c r="X36">
         <v>3.5927283560668877E-2</v>
       </c>
-      <c r="U36">
+      <c r="Y36">
         <v>17.414146979863101</v>
       </c>
-      <c r="V36">
+      <c r="Z36">
         <v>0.93290712767222295</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -3687,64 +4119,76 @@
         <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E37" t="s">
         <v>144</v>
       </c>
-      <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
         <v>22</v>
       </c>
-      <c r="H37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" t="s">
         <v>35</v>
       </c>
-      <c r="K37" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37">
+      <c r="O37" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37">
         <v>74.180000000000007</v>
       </c>
-      <c r="M37">
+      <c r="Q37">
         <v>-20.22</v>
       </c>
-      <c r="N37">
+      <c r="R37">
         <v>0.98880000000000001</v>
       </c>
-      <c r="O37">
+      <c r="S37">
         <v>26672712</v>
       </c>
-      <c r="P37">
+      <c r="T37">
         <v>7332</v>
       </c>
-      <c r="Q37">
+      <c r="U37">
         <v>1.736533471499746E-2</v>
       </c>
-      <c r="R37">
+      <c r="V37">
         <v>3967378751</v>
       </c>
-      <c r="S37">
+      <c r="W37">
         <v>996368</v>
       </c>
-      <c r="T37">
+      <c r="X37">
         <v>2.5355212777289131E-2</v>
       </c>
-      <c r="U37">
+      <c r="Y37">
         <v>17.3575995019564</v>
       </c>
-      <c r="V37">
+      <c r="Z37">
         <v>0.957076662475983</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -3752,67 +4196,79 @@
         <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E38" t="s">
         <v>144</v>
       </c>
-      <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
         <v>29</v>
       </c>
-      <c r="H38" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" t="s">
         <v>25</v>
       </c>
-      <c r="K38" t="s">
-        <v>26</v>
-      </c>
-      <c r="L38">
+      <c r="O38" t="s">
+        <v>26</v>
+      </c>
+      <c r="P38">
         <v>70.296999999999997</v>
       </c>
-      <c r="M38">
+      <c r="Q38">
         <v>-21.95</v>
       </c>
-      <c r="N38">
+      <c r="R38">
         <v>0.91490000000000005</v>
       </c>
-      <c r="O38">
+      <c r="S38">
         <v>26616210</v>
       </c>
-      <c r="P38">
+      <c r="T38">
         <v>468</v>
       </c>
-      <c r="Q38">
+      <c r="U38">
         <v>2.2826455847127392E-2</v>
       </c>
-      <c r="R38">
+      <c r="V38">
         <v>3964146985</v>
       </c>
-      <c r="S38">
+      <c r="W38">
         <v>72002</v>
       </c>
-      <c r="T38">
+      <c r="X38">
         <v>2.9731651670191431E-2</v>
       </c>
-      <c r="U38">
+      <c r="Y38">
         <v>16.848749036975999</v>
       </c>
-      <c r="V38">
+      <c r="Z38">
         <v>0.973585467355637</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -3820,72 +4276,84 @@
         <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E39" t="s">
         <v>144</v>
       </c>
-      <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F39" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" t="s">
         <v>22</v>
       </c>
-      <c r="H39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="L39" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" t="s">
         <v>25</v>
       </c>
-      <c r="K39" t="s">
-        <v>26</v>
-      </c>
-      <c r="L39">
+      <c r="O39" t="s">
+        <v>26</v>
+      </c>
+      <c r="P39">
         <v>74.180000000000007</v>
       </c>
-      <c r="M39">
+      <c r="Q39">
         <v>-20.22</v>
       </c>
-      <c r="N39">
+      <c r="R39">
         <v>0.94210000000000005</v>
       </c>
-      <c r="O39">
+      <c r="S39">
         <v>33456768</v>
       </c>
-      <c r="P39">
+      <c r="T39">
         <v>25316</v>
       </c>
-      <c r="Q39">
+      <c r="U39">
         <v>2.2552185738868309E-2</v>
       </c>
-      <c r="R39">
+      <c r="V39">
         <v>4973994875</v>
       </c>
-      <c r="S39">
+      <c r="W39">
         <v>3299384</v>
       </c>
-      <c r="T39">
+      <c r="X39">
         <v>3.0580719493680238E-2</v>
       </c>
-      <c r="U39">
+      <c r="Y39">
         <v>17.5264579037697</v>
       </c>
-      <c r="V39">
+      <c r="Z39">
         <v>0.96174767939483996</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>246</v>
+      <c r="C40" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="D40" t="s">
         <v>164</v>
@@ -3893,59 +4361,71 @@
       <c r="E40" t="s">
         <v>144</v>
       </c>
-      <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" t="s">
         <v>29</v>
       </c>
-      <c r="H40" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" t="s">
         <v>25</v>
       </c>
-      <c r="K40" t="s">
-        <v>26</v>
-      </c>
-      <c r="L40">
+      <c r="O40" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40">
         <v>70.296999999999997</v>
       </c>
-      <c r="M40">
+      <c r="Q40">
         <v>-21.95</v>
       </c>
-      <c r="N40">
+      <c r="R40">
         <v>0.99550000000000005</v>
       </c>
-      <c r="O40">
+      <c r="S40">
         <v>33347130</v>
       </c>
-      <c r="P40">
+      <c r="T40">
         <v>115805</v>
       </c>
-      <c r="Q40">
+      <c r="U40">
         <v>1.9735034651453879E-2</v>
       </c>
-      <c r="R40">
+      <c r="V40">
         <v>4951512745</v>
       </c>
-      <c r="S40">
+      <c r="W40">
         <v>17176644</v>
       </c>
-      <c r="T40">
+      <c r="X40">
         <v>2.627659776902869E-2</v>
       </c>
-      <c r="U40">
+      <c r="Y40">
         <v>17.181310963950999</v>
       </c>
-      <c r="V40">
+      <c r="Z40">
         <v>0.97005664305125805</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>106</v>
       </c>
@@ -3953,67 +4433,79 @@
         <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E41" t="s">
         <v>149</v>
       </c>
-      <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F41" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" t="s">
         <v>29</v>
       </c>
-      <c r="H41" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" t="s">
         <v>35</v>
       </c>
-      <c r="K41" t="s">
-        <v>26</v>
-      </c>
-      <c r="L41">
+      <c r="O41" t="s">
+        <v>26</v>
+      </c>
+      <c r="P41">
         <v>70.296999999999997</v>
       </c>
-      <c r="M41">
+      <c r="Q41">
         <v>-21.95</v>
       </c>
-      <c r="N41">
+      <c r="R41">
         <v>0.93230000000000002</v>
       </c>
-      <c r="O41">
+      <c r="S41">
         <v>36443872</v>
       </c>
-      <c r="P41">
+      <c r="T41">
         <v>278045</v>
       </c>
-      <c r="Q41">
+      <c r="U41">
         <v>2.620231463469902E-2</v>
       </c>
-      <c r="R41">
+      <c r="V41">
         <v>5382823318</v>
       </c>
-      <c r="S41">
+      <c r="W41">
         <v>42086962</v>
       </c>
-      <c r="T41">
+      <c r="X41">
         <v>3.3625356094905468E-2</v>
       </c>
-      <c r="U41">
+      <c r="Y41">
         <v>17.387736452754599</v>
       </c>
-      <c r="V41">
+      <c r="Z41">
         <v>0.96601305248265501</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -4021,64 +4513,76 @@
         <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E42" t="s">
         <v>144</v>
       </c>
-      <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="F42" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
         <v>22</v>
       </c>
-      <c r="H42" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" t="s">
         <v>25</v>
       </c>
-      <c r="K42" t="s">
-        <v>26</v>
-      </c>
-      <c r="L42">
+      <c r="O42" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42">
         <v>74.180000000000007</v>
       </c>
-      <c r="M42">
+      <c r="Q42">
         <v>-20.22</v>
       </c>
-      <c r="N42">
+      <c r="R42">
         <v>0.98819999999999997</v>
       </c>
-      <c r="O42">
+      <c r="S42">
         <v>33313218</v>
       </c>
-      <c r="P42">
+      <c r="T42">
         <v>313858</v>
       </c>
-      <c r="Q42">
+      <c r="U42">
         <v>3.0271639766072059E-2</v>
       </c>
-      <c r="R42">
+      <c r="V42">
         <v>4902671275</v>
       </c>
-      <c r="S42">
+      <c r="W42">
         <v>44026595</v>
       </c>
-      <c r="T42">
+      <c r="X42">
         <v>4.0030053726669117E-2</v>
       </c>
-      <c r="U42">
+      <c r="Y42">
         <v>17.051787254641301</v>
       </c>
-      <c r="V42">
+      <c r="Z42">
         <v>0.98231529724264499</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -4086,67 +4590,79 @@
         <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>277</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
+        <v>278</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" t="s">
         <v>29</v>
       </c>
-      <c r="H43" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" t="s">
         <v>35</v>
       </c>
-      <c r="K43" t="s">
-        <v>26</v>
-      </c>
-      <c r="L43">
+      <c r="O43" t="s">
+        <v>26</v>
+      </c>
+      <c r="P43">
         <v>70.296999999999997</v>
       </c>
-      <c r="M43">
+      <c r="Q43">
         <v>-21.95</v>
       </c>
-      <c r="N43">
+      <c r="R43">
         <v>0.91720000000000002</v>
       </c>
-      <c r="O43">
+      <c r="S43">
         <v>19859782</v>
       </c>
-      <c r="P43">
+      <c r="T43">
         <v>855956</v>
       </c>
-      <c r="Q43">
+      <c r="U43">
         <v>2.5666368606920179E-2</v>
       </c>
-      <c r="R43">
+      <c r="V43">
         <v>2826215121</v>
       </c>
-      <c r="S43">
+      <c r="W43">
         <v>129656036</v>
       </c>
-      <c r="T43">
+      <c r="X43">
         <v>3.3220445780027703E-2</v>
       </c>
-      <c r="U43">
+      <c r="Y43">
         <v>17.5995407624692</v>
       </c>
-      <c r="V43">
+      <c r="Z43">
         <v>0.93103914178226799</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -4154,64 +4670,76 @@
         <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E44" t="s">
         <v>144</v>
       </c>
-      <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="F44" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" t="s">
         <v>22</v>
       </c>
-      <c r="H44" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" t="s">
         <v>25</v>
       </c>
-      <c r="K44" t="s">
-        <v>26</v>
-      </c>
-      <c r="L44">
+      <c r="O44" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44">
         <v>74.180000000000007</v>
       </c>
-      <c r="M44">
+      <c r="Q44">
         <v>-20.22</v>
       </c>
-      <c r="N44">
+      <c r="R44">
         <v>0.93079999999999996</v>
       </c>
-      <c r="O44">
+      <c r="S44">
         <v>41008160</v>
       </c>
-      <c r="P44">
+      <c r="T44">
         <v>203691</v>
       </c>
-      <c r="Q44">
+      <c r="U44">
         <v>2.0964148872649638E-2</v>
       </c>
-      <c r="R44">
+      <c r="V44">
         <v>6061945401</v>
       </c>
-      <c r="S44">
+      <c r="W44">
         <v>27879864</v>
       </c>
-      <c r="T44">
+      <c r="X44">
         <v>3.073644179823121E-2</v>
       </c>
-      <c r="U44">
+      <c r="Y44">
         <v>17.453356509931599</v>
       </c>
-      <c r="V44">
+      <c r="Z44">
         <v>0.97920161204937395</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>114</v>
       </c>
@@ -4219,129 +4747,159 @@
         <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E45" t="s">
         <v>144</v>
       </c>
-      <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="F45" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" t="s">
         <v>29</v>
       </c>
-      <c r="H45" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="L45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" t="s">
         <v>25</v>
       </c>
-      <c r="K45" t="s">
-        <v>26</v>
-      </c>
-      <c r="L45">
+      <c r="O45" t="s">
+        <v>26</v>
+      </c>
+      <c r="P45">
         <v>70.296999999999997</v>
       </c>
-      <c r="M45">
+      <c r="Q45">
         <v>-21.95</v>
       </c>
-      <c r="N45">
+      <c r="R45">
         <v>0.72329999999999994</v>
       </c>
-      <c r="O45">
+      <c r="S45">
         <v>40159986</v>
       </c>
-      <c r="P45">
+      <c r="T45">
         <v>36686</v>
       </c>
-      <c r="Q45">
+      <c r="U45">
         <v>2.0426743822722582E-2</v>
       </c>
-      <c r="R45">
+      <c r="V45">
         <v>5964480529</v>
       </c>
-      <c r="S45">
+      <c r="W45">
         <v>5501443</v>
       </c>
-      <c r="T45">
+      <c r="X45">
         <v>2.9210372129830239E-2</v>
       </c>
-      <c r="U45">
+      <c r="Y45">
         <v>17.384878783490201</v>
       </c>
-      <c r="V45">
+      <c r="Z45">
         <v>0.96732441334960495</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="C46" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" t="s">
         <v>29</v>
       </c>
-      <c r="H46" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="L46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" t="s">
         <v>25</v>
       </c>
-      <c r="K46" t="s">
-        <v>26</v>
-      </c>
-      <c r="L46">
+      <c r="O46" t="s">
+        <v>26</v>
+      </c>
+      <c r="P46">
         <v>70.296999999999997</v>
       </c>
-      <c r="M46">
+      <c r="Q46">
         <v>-21.95</v>
       </c>
-      <c r="N46">
+      <c r="R46">
         <v>0.86909999999999998</v>
       </c>
-      <c r="O46">
+      <c r="S46">
         <v>35961288</v>
       </c>
-      <c r="P46">
+      <c r="T46">
         <v>2433439</v>
       </c>
-      <c r="Q46">
+      <c r="U46">
         <v>4.0267041735519322E-2</v>
       </c>
-      <c r="R46">
+      <c r="V46">
         <v>4985455542</v>
       </c>
-      <c r="S46">
+      <c r="W46">
         <v>370691905</v>
       </c>
-      <c r="T46">
+      <c r="X46">
         <v>4.7036128737462442E-2</v>
       </c>
-      <c r="U46">
+      <c r="Y46">
         <v>17.6863316813461</v>
       </c>
-      <c r="V46">
+      <c r="Z46">
         <v>0.95123717270497399</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -4349,64 +4907,76 @@
         <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E47" t="s">
         <v>144</v>
       </c>
-      <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="F47" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J47" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" t="s">
         <v>22</v>
       </c>
-      <c r="H47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="L47" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" t="s">
         <v>25</v>
       </c>
-      <c r="K47" t="s">
-        <v>26</v>
-      </c>
-      <c r="L47">
+      <c r="O47" t="s">
+        <v>26</v>
+      </c>
+      <c r="P47">
         <v>74.180000000000007</v>
       </c>
-      <c r="M47">
+      <c r="Q47">
         <v>-20.22</v>
       </c>
-      <c r="N47">
+      <c r="R47">
         <v>0.97050000000000003</v>
       </c>
-      <c r="O47">
+      <c r="S47">
         <v>56723288</v>
       </c>
-      <c r="P47">
+      <c r="T47">
         <v>229392</v>
       </c>
-      <c r="Q47">
+      <c r="U47">
         <v>2.518603483273096E-2</v>
       </c>
-      <c r="R47">
+      <c r="V47">
         <v>8391035278</v>
       </c>
-      <c r="S47">
+      <c r="W47">
         <v>28936514</v>
       </c>
-      <c r="T47">
+      <c r="X47">
         <v>3.5327889883478347E-2</v>
       </c>
-      <c r="U47">
+      <c r="Y47">
         <v>17.1838522379417</v>
       </c>
-      <c r="V47">
+      <c r="Z47">
         <v>0.98033729896198796</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>120</v>
       </c>
@@ -4414,64 +4984,76 @@
         <v>121</v>
       </c>
       <c r="D48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E48" t="s">
         <v>144</v>
       </c>
-      <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="F48" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J48" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" t="s">
         <v>22</v>
       </c>
-      <c r="H48" t="s">
-        <v>23</v>
-      </c>
-      <c r="I48" t="s">
-        <v>24</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" t="s">
         <v>25</v>
       </c>
-      <c r="K48" t="s">
-        <v>26</v>
-      </c>
-      <c r="L48">
+      <c r="O48" t="s">
+        <v>26</v>
+      </c>
+      <c r="P48">
         <v>74.180000000000007</v>
       </c>
-      <c r="M48">
+      <c r="Q48">
         <v>-20.22</v>
       </c>
-      <c r="N48">
+      <c r="R48">
         <v>0.97550000000000003</v>
       </c>
-      <c r="O48">
+      <c r="S48">
         <v>40541728</v>
       </c>
-      <c r="P48">
+      <c r="T48">
         <v>131960</v>
       </c>
-      <c r="Q48">
+      <c r="U48">
         <v>2.8534143508673001E-2</v>
       </c>
-      <c r="R48">
+      <c r="V48">
         <v>6009225904</v>
       </c>
-      <c r="S48">
+      <c r="W48">
         <v>18005686</v>
       </c>
-      <c r="T48">
+      <c r="X48">
         <v>3.7164918270391589E-2</v>
       </c>
-      <c r="U48">
+      <c r="Y48">
         <v>17.504550858224999</v>
       </c>
-      <c r="V48">
+      <c r="Z48">
         <v>0.97368627323170098</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -4479,67 +5061,79 @@
         <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D49" t="s">
         <v>177</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
+        <v>289</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" t="s">
         <v>29</v>
       </c>
-      <c r="H49" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="L49" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" t="s">
         <v>25</v>
       </c>
-      <c r="K49" t="s">
-        <v>26</v>
-      </c>
-      <c r="L49">
+      <c r="O49" t="s">
+        <v>26</v>
+      </c>
+      <c r="P49">
         <v>70.296999999999997</v>
       </c>
-      <c r="M49">
+      <c r="Q49">
         <v>-21.95</v>
       </c>
-      <c r="N49">
+      <c r="R49">
         <v>0.86360000000000003</v>
       </c>
-      <c r="O49">
+      <c r="S49">
         <v>23715482</v>
       </c>
-      <c r="P49">
+      <c r="T49">
         <v>193299</v>
       </c>
-      <c r="Q49">
+      <c r="U49">
         <v>1.8052397133193621E-2</v>
       </c>
-      <c r="R49">
+      <c r="V49">
         <v>3495571363</v>
       </c>
-      <c r="S49">
+      <c r="W49">
         <v>28877445</v>
       </c>
-      <c r="T49">
+      <c r="X49">
         <v>2.7126651289827379E-2</v>
       </c>
-      <c r="U49">
+      <c r="Y49">
         <v>18.047982658008401</v>
       </c>
-      <c r="V49">
+      <c r="Z49">
         <v>0.919510545719329</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>124</v>
       </c>
@@ -4547,64 +5141,76 @@
         <v>125</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E50" t="s">
         <v>144</v>
       </c>
-      <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="F50" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" t="s">
         <v>22</v>
       </c>
-      <c r="H50" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" t="s">
-        <v>24</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="L50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" t="s">
         <v>25</v>
       </c>
-      <c r="K50" t="s">
-        <v>26</v>
-      </c>
-      <c r="L50">
+      <c r="O50" t="s">
+        <v>26</v>
+      </c>
+      <c r="P50">
         <v>74.180000000000007</v>
       </c>
-      <c r="M50">
+      <c r="Q50">
         <v>-20.22</v>
       </c>
-      <c r="N50">
+      <c r="R50">
         <v>0.92700000000000005</v>
       </c>
-      <c r="O50">
+      <c r="S50">
         <v>42103908</v>
       </c>
-      <c r="P50">
+      <c r="T50">
         <v>78070</v>
       </c>
-      <c r="Q50">
+      <c r="U50">
         <v>1.9120802861534499E-2</v>
       </c>
-      <c r="R50">
+      <c r="V50">
         <v>6259904670</v>
       </c>
-      <c r="S50">
+      <c r="W50">
         <v>11392957</v>
       </c>
-      <c r="T50">
+      <c r="X50">
         <v>2.599929973434234E-2</v>
       </c>
-      <c r="U50">
+      <c r="Y50">
         <v>17.209460458707799</v>
       </c>
-      <c r="V50">
+      <c r="Z50">
         <v>0.97288896359492905</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>126</v>
       </c>
@@ -4612,188 +5218,222 @@
         <v>127</v>
       </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E51" t="s">
         <v>144</v>
       </c>
-      <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="F51" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" t="s">
         <v>22</v>
       </c>
-      <c r="H51" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="L51" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" t="s">
         <v>35</v>
       </c>
-      <c r="K51" t="s">
-        <v>26</v>
-      </c>
-      <c r="L51">
+      <c r="O51" t="s">
+        <v>26</v>
+      </c>
+      <c r="P51">
         <v>74.180000000000007</v>
       </c>
-      <c r="M51">
+      <c r="Q51">
         <v>-20.22</v>
       </c>
-      <c r="N51">
+      <c r="R51">
         <v>0.96250000000000002</v>
       </c>
-      <c r="O51">
+      <c r="S51">
         <v>45323804</v>
       </c>
-      <c r="P51">
+      <c r="T51">
         <v>162306</v>
       </c>
-      <c r="Q51">
+      <c r="U51">
         <v>2.6834148795907061E-2</v>
       </c>
-      <c r="R51">
+      <c r="V51">
         <v>6721463851</v>
       </c>
-      <c r="S51">
+      <c r="W51">
         <v>22459522</v>
       </c>
-      <c r="T51">
+      <c r="X51">
         <v>3.4656501215016837E-2</v>
       </c>
-      <c r="U51">
+      <c r="Y51">
         <v>17.573212004663599</v>
       </c>
-      <c r="V51">
+      <c r="Z51">
         <v>0.969286557603106</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" t="s">
         <v>29</v>
       </c>
-      <c r="H52" t="s">
-        <v>23</v>
-      </c>
-      <c r="I52" t="s">
-        <v>24</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="L52" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" t="s">
         <v>35</v>
       </c>
-      <c r="K52" t="s">
-        <v>26</v>
-      </c>
-      <c r="L52">
+      <c r="O52" t="s">
+        <v>26</v>
+      </c>
+      <c r="P52">
         <v>70.296999999999997</v>
       </c>
-      <c r="M52">
+      <c r="Q52">
         <v>-21.95</v>
       </c>
-      <c r="N52">
+      <c r="R52">
         <v>0.85250000000000004</v>
       </c>
-      <c r="O52">
+      <c r="S52">
         <v>27819558</v>
       </c>
-      <c r="P52">
+      <c r="T52">
         <v>493970</v>
       </c>
-      <c r="Q52">
+      <c r="U52">
         <v>2.023345157868894E-2</v>
       </c>
-      <c r="R52">
+      <c r="V52">
         <v>4056583886</v>
       </c>
-      <c r="S52">
+      <c r="W52">
         <v>74801533</v>
       </c>
-      <c r="T52">
+      <c r="X52">
         <v>2.9988606775189771E-2</v>
       </c>
-      <c r="U52">
+      <c r="Y52">
         <v>17.671070431947498</v>
       </c>
-      <c r="V52">
+      <c r="Z52">
         <v>0.94609269456371703</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="C53" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" t="s">
         <v>29</v>
       </c>
-      <c r="H53" t="s">
-        <v>23</v>
-      </c>
-      <c r="I53" t="s">
-        <v>24</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="L53" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" t="s">
+        <v>24</v>
+      </c>
+      <c r="N53" t="s">
         <v>25</v>
       </c>
-      <c r="K53" t="s">
-        <v>26</v>
-      </c>
-      <c r="L53">
+      <c r="O53" t="s">
+        <v>26</v>
+      </c>
+      <c r="P53">
         <v>70.296999999999997</v>
       </c>
-      <c r="M53">
+      <c r="Q53">
         <v>-21.95</v>
       </c>
-      <c r="N53">
+      <c r="R53">
         <v>0.91679999999999995</v>
       </c>
-      <c r="O53">
+      <c r="S53">
         <v>32120512</v>
       </c>
-      <c r="P53">
+      <c r="T53">
         <v>413420</v>
       </c>
-      <c r="Q53">
+      <c r="U53">
         <v>2.3881044236142901E-2</v>
       </c>
-      <c r="R53">
+      <c r="V53">
         <v>4714791156</v>
       </c>
-      <c r="S53">
+      <c r="W53">
         <v>58632783</v>
       </c>
-      <c r="T53">
+      <c r="X53">
         <v>3.2927496972468877E-2</v>
       </c>
-      <c r="U53">
+      <c r="Y53">
         <v>16.9351822894028</v>
       </c>
-      <c r="V53">
+      <c r="Z53">
         <v>0.95973821096377698</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>132</v>
       </c>
@@ -4801,64 +5441,76 @@
         <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E54" t="s">
         <v>144</v>
       </c>
-      <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="F54" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J54" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" t="s">
         <v>22</v>
       </c>
-      <c r="H54" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54" t="s">
-        <v>24</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="L54" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" t="s">
         <v>35</v>
       </c>
-      <c r="K54" t="s">
-        <v>26</v>
-      </c>
-      <c r="L54">
+      <c r="O54" t="s">
+        <v>26</v>
+      </c>
+      <c r="P54">
         <v>74.180000000000007</v>
       </c>
-      <c r="M54">
+      <c r="Q54">
         <v>-20.22</v>
       </c>
-      <c r="N54">
+      <c r="R54">
         <v>0.96660000000000001</v>
       </c>
-      <c r="O54">
+      <c r="S54">
         <v>26506642</v>
       </c>
-      <c r="P54">
+      <c r="T54">
         <v>103835</v>
       </c>
-      <c r="Q54">
+      <c r="U54">
         <v>1.27458698982087E-2</v>
       </c>
-      <c r="R54">
+      <c r="V54">
         <v>3932186602</v>
       </c>
-      <c r="S54">
+      <c r="W54">
         <v>15028892</v>
       </c>
-      <c r="T54">
+      <c r="X54">
         <v>1.989224717002824E-2</v>
       </c>
-      <c r="U54">
+      <c r="Y54">
         <v>17.799340301118299</v>
       </c>
-      <c r="V54">
+      <c r="Z54">
         <v>0.94545863975543898</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -4866,67 +5518,79 @@
         <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D55" t="s">
         <v>168</v>
       </c>
       <c r="E55" t="s">
-        <v>283</v>
-      </c>
-      <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
+        <v>289</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J55" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" t="s">
         <v>29</v>
       </c>
-      <c r="H55" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55" t="s">
-        <v>24</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="L55" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" t="s">
+        <v>24</v>
+      </c>
+      <c r="N55" t="s">
         <v>25</v>
       </c>
-      <c r="K55" t="s">
-        <v>26</v>
-      </c>
-      <c r="L55">
+      <c r="O55" t="s">
+        <v>26</v>
+      </c>
+      <c r="P55">
         <v>70.296999999999997</v>
       </c>
-      <c r="M55">
+      <c r="Q55">
         <v>-21.95</v>
       </c>
-      <c r="N55">
+      <c r="R55">
         <v>0.95379999999999998</v>
       </c>
-      <c r="O55">
+      <c r="S55">
         <v>38451084</v>
       </c>
-      <c r="P55">
+      <c r="T55">
         <v>1339</v>
       </c>
-      <c r="Q55">
+      <c r="U55">
         <v>2.2360290833639E-2</v>
       </c>
-      <c r="R55">
+      <c r="V55">
         <v>5724389869</v>
       </c>
-      <c r="S55">
+      <c r="W55">
         <v>191439</v>
       </c>
-      <c r="T55">
+      <c r="X55">
         <v>2.966272592777764E-2</v>
       </c>
-      <c r="U55">
+      <c r="Y55">
         <v>17.674914328896399</v>
       </c>
-      <c r="V55">
+      <c r="Z55">
         <v>0.957287776168672</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -4934,64 +5598,76 @@
         <v>137</v>
       </c>
       <c r="D56" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E56" t="s">
-        <v>146</v>
-      </c>
-      <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
+        <v>289</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J56" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" t="s">
         <v>22</v>
       </c>
-      <c r="H56" t="s">
-        <v>23</v>
-      </c>
-      <c r="I56" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="L56" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" t="s">
         <v>25</v>
       </c>
-      <c r="K56" t="s">
-        <v>26</v>
-      </c>
-      <c r="L56">
+      <c r="O56" t="s">
+        <v>26</v>
+      </c>
+      <c r="P56">
         <v>74.180000000000007</v>
       </c>
-      <c r="M56">
+      <c r="Q56">
         <v>-20.22</v>
       </c>
-      <c r="N56">
+      <c r="R56">
         <v>0.89950000000000008</v>
       </c>
-      <c r="O56">
+      <c r="S56">
         <v>23685984</v>
       </c>
-      <c r="P56">
+      <c r="T56">
         <v>88321</v>
       </c>
-      <c r="Q56">
+      <c r="U56">
         <v>2.078390257938412E-2</v>
       </c>
-      <c r="R56">
+      <c r="V56">
         <v>3511673995</v>
       </c>
-      <c r="S56">
+      <c r="W56">
         <v>12776481</v>
       </c>
-      <c r="T56">
+      <c r="X56">
         <v>2.8624230357511049E-2</v>
       </c>
-      <c r="U56">
+      <c r="Y56">
         <v>17.476185110916099</v>
       </c>
-      <c r="V56">
+      <c r="Z56">
         <v>0.95838916799718599</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>138</v>
       </c>
@@ -4999,64 +5675,76 @@
         <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E57" t="s">
         <v>144</v>
       </c>
-      <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="F57" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" t="s">
         <v>22</v>
       </c>
-      <c r="H57" t="s">
-        <v>23</v>
-      </c>
-      <c r="I57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="L57" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" t="s">
         <v>25</v>
       </c>
-      <c r="K57" t="s">
-        <v>26</v>
-      </c>
-      <c r="L57">
+      <c r="O57" t="s">
+        <v>26</v>
+      </c>
+      <c r="P57">
         <v>74.180000000000007</v>
       </c>
-      <c r="M57">
+      <c r="Q57">
         <v>-20.22</v>
       </c>
-      <c r="N57">
+      <c r="R57">
         <v>0.94879999999999998</v>
       </c>
-      <c r="O57">
+      <c r="S57">
         <v>37758512</v>
       </c>
-      <c r="P57">
+      <c r="T57">
         <v>1365756</v>
       </c>
-      <c r="Q57">
+      <c r="U57">
         <v>1.9953963014885719E-2</v>
       </c>
-      <c r="R57">
+      <c r="V57">
         <v>5412338431</v>
       </c>
-      <c r="S57">
+      <c r="W57">
         <v>205005134</v>
       </c>
-      <c r="T57">
+      <c r="X57">
         <v>2.79886560391851E-2</v>
       </c>
-      <c r="U57">
+      <c r="Y57">
         <v>17.620245144242201</v>
       </c>
-      <c r="V57">
+      <c r="Z57">
         <v>0.96520597805894803</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>140</v>
       </c>
@@ -5064,64 +5752,76 @@
         <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E58" t="s">
         <v>144</v>
       </c>
-      <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="F58" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J58" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" t="s">
         <v>22</v>
       </c>
-      <c r="H58" t="s">
-        <v>23</v>
-      </c>
-      <c r="I58" t="s">
-        <v>24</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="L58" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" t="s">
         <v>25</v>
       </c>
-      <c r="K58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L58">
+      <c r="O58" t="s">
+        <v>26</v>
+      </c>
+      <c r="P58">
         <v>74.180000000000007</v>
       </c>
-      <c r="M58">
+      <c r="Q58">
         <v>-20.22</v>
       </c>
-      <c r="N58">
+      <c r="R58">
         <v>0.96120000000000005</v>
       </c>
-      <c r="O58">
+      <c r="S58">
         <v>20159000</v>
       </c>
-      <c r="P58">
+      <c r="T58">
         <v>85625</v>
       </c>
-      <c r="Q58">
+      <c r="U58">
         <v>2.9508357088931399E-2</v>
       </c>
-      <c r="R58">
+      <c r="V58">
         <v>2981605660</v>
       </c>
-      <c r="S58">
+      <c r="W58">
         <v>11809357</v>
       </c>
-      <c r="T58">
+      <c r="X58">
         <v>3.9276333891233202E-2</v>
       </c>
-      <c r="U58">
+      <c r="Y58">
         <v>17.6804429515145</v>
       </c>
-      <c r="V58">
+      <c r="Z58">
         <v>0.930615805426662</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -5129,7 +5829,7 @@
         <v>143</v>
       </c>
       <c r="C59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D59" t="s">
         <v>149</v>
@@ -5137,378 +5837,522 @@
       <c r="E59" t="s">
         <v>149</v>
       </c>
-      <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="F59" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J59" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" t="s">
         <v>29</v>
       </c>
-      <c r="H59" t="s">
-        <v>23</v>
-      </c>
-      <c r="I59" t="s">
-        <v>24</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="L59" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" t="s">
+        <v>24</v>
+      </c>
+      <c r="N59" t="s">
         <v>30</v>
       </c>
-      <c r="K59" t="s">
-        <v>26</v>
-      </c>
-      <c r="L59">
+      <c r="O59" t="s">
+        <v>26</v>
+      </c>
+      <c r="P59">
         <v>70.296999999999997</v>
       </c>
-      <c r="M59">
+      <c r="Q59">
         <v>-21.95</v>
       </c>
-      <c r="N59">
+      <c r="R59">
         <v>0.96760000000000002</v>
       </c>
-      <c r="O59">
+      <c r="S59">
         <v>28254038</v>
       </c>
-      <c r="P59">
+      <c r="T59">
         <v>23799</v>
       </c>
-      <c r="Q59">
+      <c r="U59">
         <v>2.687272846003896E-2</v>
       </c>
-      <c r="R59">
+      <c r="V59">
         <v>4200906995</v>
       </c>
-      <c r="S59">
+      <c r="W59">
         <v>3399219</v>
       </c>
-      <c r="T59">
+      <c r="X59">
         <v>3.46335546212726E-2</v>
       </c>
-      <c r="U59">
+      <c r="Y59">
         <v>17.544357908695599</v>
       </c>
-      <c r="V59">
+      <c r="Z59">
         <v>0.95286265108850199</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>147</v>
       </c>
       <c r="D61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E61" t="s">
         <v>144</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G61" t="s">
+        <v>287</v>
+      </c>
+      <c r="H61" t="s">
+        <v>287</v>
+      </c>
+      <c r="I61" t="s">
+        <v>287</v>
+      </c>
+      <c r="J61" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" t="s">
         <v>22</v>
       </c>
-      <c r="H61" t="s">
-        <v>23</v>
-      </c>
-      <c r="I61" t="s">
-        <v>24</v>
-      </c>
-      <c r="J61" t="s">
+      <c r="L61" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" t="s">
         <v>35</v>
       </c>
-      <c r="K61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E62" t="s">
         <v>144</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G62" t="s">
+        <v>287</v>
+      </c>
+      <c r="H62" t="s">
+        <v>287</v>
+      </c>
+      <c r="I62" t="s">
+        <v>287</v>
+      </c>
+      <c r="J62" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" t="s">
         <v>22</v>
       </c>
-      <c r="H62" t="s">
-        <v>23</v>
-      </c>
-      <c r="I62" t="s">
-        <v>24</v>
-      </c>
-      <c r="J62" t="s">
+      <c r="L62" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" t="s">
+        <v>24</v>
+      </c>
+      <c r="N62" t="s">
         <v>35</v>
       </c>
-      <c r="K62" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>150</v>
       </c>
       <c r="D63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E63" t="s">
         <v>144</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G63" t="s">
+        <v>287</v>
+      </c>
+      <c r="H63" t="s">
+        <v>287</v>
+      </c>
+      <c r="I63" t="s">
+        <v>287</v>
+      </c>
+      <c r="J63" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" t="s">
         <v>22</v>
       </c>
-      <c r="H63" t="s">
-        <v>23</v>
-      </c>
-      <c r="I63" t="s">
-        <v>24</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="L63" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" t="s">
+        <v>24</v>
+      </c>
+      <c r="N63" t="s">
         <v>25</v>
       </c>
-      <c r="K63" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>151</v>
       </c>
       <c r="D64" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E64" t="s">
         <v>144</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G64" t="s">
+        <v>287</v>
+      </c>
+      <c r="H64" t="s">
+        <v>287</v>
+      </c>
+      <c r="I64" t="s">
+        <v>287</v>
+      </c>
+      <c r="J64" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" t="s">
         <v>22</v>
       </c>
-      <c r="H64" t="s">
-        <v>23</v>
-      </c>
-      <c r="I64" t="s">
-        <v>24</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="L64" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" t="s">
         <v>25</v>
       </c>
-      <c r="K64" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>152</v>
       </c>
       <c r="D65" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E65" t="s">
         <v>144</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G65" t="s">
+        <v>287</v>
+      </c>
+      <c r="H65" t="s">
+        <v>287</v>
+      </c>
+      <c r="I65" t="s">
+        <v>287</v>
+      </c>
+      <c r="J65" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" t="s">
         <v>22</v>
       </c>
-      <c r="H65" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="L65" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65" t="s">
         <v>35</v>
       </c>
-      <c r="K65" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>153</v>
       </c>
       <c r="D66" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E66" t="s">
         <v>146</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>288</v>
       </c>
       <c r="G66" t="s">
+        <v>287</v>
+      </c>
+      <c r="H66" t="s">
+        <v>287</v>
+      </c>
+      <c r="I66" t="s">
+        <v>287</v>
+      </c>
+      <c r="J66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" t="s">
         <v>22</v>
       </c>
-      <c r="H66" t="s">
-        <v>23</v>
-      </c>
-      <c r="I66" t="s">
-        <v>24</v>
-      </c>
-      <c r="J66" t="s">
+      <c r="L66" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66" t="s">
+        <v>24</v>
+      </c>
+      <c r="N66" t="s">
         <v>25</v>
       </c>
-      <c r="K66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>154</v>
       </c>
       <c r="D67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E67" t="s">
         <v>144</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G67" t="s">
+        <v>287</v>
+      </c>
+      <c r="H67" t="s">
+        <v>287</v>
+      </c>
+      <c r="I67" t="s">
+        <v>287</v>
+      </c>
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" t="s">
         <v>22</v>
       </c>
-      <c r="H67" t="s">
-        <v>23</v>
-      </c>
-      <c r="I67" t="s">
-        <v>24</v>
-      </c>
-      <c r="J67" t="s">
+      <c r="L67" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" t="s">
+        <v>24</v>
+      </c>
+      <c r="N67" t="s">
         <v>25</v>
       </c>
-      <c r="K67" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>155</v>
       </c>
       <c r="D68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E68" t="s">
         <v>144</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G68" t="s">
+        <v>287</v>
+      </c>
+      <c r="H68" t="s">
+        <v>287</v>
+      </c>
+      <c r="I68" t="s">
+        <v>287</v>
+      </c>
+      <c r="J68" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" t="s">
         <v>22</v>
       </c>
-      <c r="H68" t="s">
-        <v>23</v>
-      </c>
-      <c r="I68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J68" t="s">
+      <c r="L68" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" t="s">
+        <v>24</v>
+      </c>
+      <c r="N68" t="s">
         <v>25</v>
       </c>
-      <c r="K68" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>156</v>
       </c>
       <c r="D69" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E69" t="s">
         <v>144</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G69" t="s">
+        <v>287</v>
+      </c>
+      <c r="H69" t="s">
+        <v>287</v>
+      </c>
+      <c r="I69" t="s">
+        <v>287</v>
+      </c>
+      <c r="J69" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" t="s">
         <v>22</v>
       </c>
-      <c r="H69" t="s">
-        <v>23</v>
-      </c>
-      <c r="I69" t="s">
-        <v>24</v>
-      </c>
-      <c r="J69" t="s">
+      <c r="L69" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69" t="s">
+        <v>24</v>
+      </c>
+      <c r="N69" t="s">
         <v>25</v>
       </c>
-      <c r="K69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>157</v>
       </c>
       <c r="D70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E70" t="s">
         <v>144</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G70" t="s">
+        <v>287</v>
+      </c>
+      <c r="H70" t="s">
+        <v>287</v>
+      </c>
+      <c r="I70" t="s">
+        <v>287</v>
+      </c>
+      <c r="J70" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" t="s">
         <v>22</v>
       </c>
-      <c r="H70" t="s">
-        <v>23</v>
-      </c>
-      <c r="I70" t="s">
-        <v>24</v>
-      </c>
-      <c r="J70" t="s">
+      <c r="L70" t="s">
+        <v>23</v>
+      </c>
+      <c r="M70" t="s">
+        <v>24</v>
+      </c>
+      <c r="N70" t="s">
         <v>25</v>
       </c>
-      <c r="K70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>158</v>
       </c>
       <c r="D71" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E71" t="s">
         <v>144</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G71" t="s">
+        <v>287</v>
+      </c>
+      <c r="H71" t="s">
+        <v>287</v>
+      </c>
+      <c r="I71" t="s">
+        <v>287</v>
+      </c>
+      <c r="J71" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" t="s">
         <v>22</v>
       </c>
-      <c r="H71" t="s">
-        <v>23</v>
-      </c>
-      <c r="I71" t="s">
-        <v>24</v>
-      </c>
-      <c r="J71" t="s">
+      <c r="L71" t="s">
+        <v>23</v>
+      </c>
+      <c r="M71" t="s">
+        <v>24</v>
+      </c>
+      <c r="N71" t="s">
         <v>25</v>
       </c>
-      <c r="K71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>159</v>
       </c>
@@ -5519,92 +6363,128 @@
         <v>144</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G72" t="s">
+        <v>287</v>
+      </c>
+      <c r="H72" t="s">
+        <v>287</v>
+      </c>
+      <c r="I72" t="s">
+        <v>287</v>
+      </c>
+      <c r="J72" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" t="s">
         <v>29</v>
       </c>
-      <c r="H72" t="s">
-        <v>23</v>
-      </c>
-      <c r="I72" t="s">
-        <v>24</v>
-      </c>
-      <c r="J72" t="s">
+      <c r="L72" t="s">
+        <v>23</v>
+      </c>
+      <c r="M72" t="s">
+        <v>24</v>
+      </c>
+      <c r="N72" t="s">
         <v>25</v>
       </c>
-      <c r="K72" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" s="3" t="s">
+      <c r="O72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3" t="s">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E73" t="s">
         <v>144</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G73" t="s">
+        <v>287</v>
+      </c>
+      <c r="H73" t="s">
+        <v>287</v>
+      </c>
+      <c r="I73" t="s">
+        <v>287</v>
+      </c>
+      <c r="J73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" t="s">
         <v>29</v>
       </c>
-      <c r="H73" t="s">
-        <v>23</v>
-      </c>
-      <c r="I73" t="s">
-        <v>24</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="L73" t="s">
+        <v>23</v>
+      </c>
+      <c r="M73" t="s">
+        <v>24</v>
+      </c>
+      <c r="N73" t="s">
         <v>25</v>
       </c>
-      <c r="K73" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="3" t="s">
+      <c r="O73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="C74" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>170</v>
       </c>
       <c r="E74" t="s">
         <v>144</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G74" t="s">
+        <v>287</v>
+      </c>
+      <c r="H74" t="s">
+        <v>287</v>
+      </c>
+      <c r="I74" t="s">
+        <v>287</v>
+      </c>
+      <c r="J74" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" t="s">
         <v>29</v>
       </c>
-      <c r="H74" t="s">
-        <v>23</v>
-      </c>
-      <c r="I74" t="s">
-        <v>24</v>
-      </c>
-      <c r="J74" t="s">
+      <c r="L74" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74" t="s">
+        <v>24</v>
+      </c>
+      <c r="N74" t="s">
         <v>25</v>
       </c>
-      <c r="K74" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B75" s="3" t="s">
+      <c r="O74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>255</v>
+      <c r="C75" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="D75" t="s">
         <v>172</v>
@@ -5613,30 +6493,42 @@
         <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G75" t="s">
+        <v>287</v>
+      </c>
+      <c r="H75" t="s">
+        <v>287</v>
+      </c>
+      <c r="I75" t="s">
+        <v>287</v>
+      </c>
+      <c r="J75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" t="s">
         <v>29</v>
       </c>
-      <c r="H75" t="s">
-        <v>23</v>
-      </c>
-      <c r="I75" t="s">
-        <v>24</v>
-      </c>
-      <c r="J75" t="s">
+      <c r="L75" t="s">
+        <v>23</v>
+      </c>
+      <c r="M75" t="s">
+        <v>24</v>
+      </c>
+      <c r="N75" t="s">
         <v>25</v>
       </c>
-      <c r="K75" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="3" t="s">
+      <c r="O75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>256</v>
+      <c r="C76" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="D76" t="s">
         <v>174</v>
@@ -5645,30 +6537,42 @@
         <v>144</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G76" t="s">
+        <v>287</v>
+      </c>
+      <c r="H76" t="s">
+        <v>287</v>
+      </c>
+      <c r="I76" t="s">
+        <v>287</v>
+      </c>
+      <c r="J76" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" t="s">
         <v>29</v>
       </c>
-      <c r="H76" t="s">
-        <v>23</v>
-      </c>
-      <c r="I76" t="s">
-        <v>24</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="L76" t="s">
+        <v>23</v>
+      </c>
+      <c r="M76" t="s">
+        <v>24</v>
+      </c>
+      <c r="N76" t="s">
         <v>25</v>
       </c>
-      <c r="K76" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="3" t="s">
+      <c r="O76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>257</v>
+      <c r="C77" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D77" t="s">
         <v>176</v>
@@ -5677,246 +6581,342 @@
         <v>144</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G77" t="s">
+        <v>287</v>
+      </c>
+      <c r="H77" t="s">
+        <v>287</v>
+      </c>
+      <c r="I77" t="s">
+        <v>287</v>
+      </c>
+      <c r="J77" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77" t="s">
         <v>29</v>
       </c>
-      <c r="H77" t="s">
-        <v>23</v>
-      </c>
-      <c r="I77" t="s">
-        <v>24</v>
-      </c>
-      <c r="J77" t="s">
+      <c r="L77" t="s">
+        <v>23</v>
+      </c>
+      <c r="M77" t="s">
+        <v>24</v>
+      </c>
+      <c r="N77" t="s">
         <v>35</v>
       </c>
-      <c r="K77" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>266</v>
+      <c r="O77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E78" t="s">
         <v>144</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G78" t="s">
+        <v>287</v>
+      </c>
+      <c r="H78" t="s">
+        <v>287</v>
+      </c>
+      <c r="I78" t="s">
+        <v>287</v>
+      </c>
+      <c r="J78" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" t="s">
         <v>29</v>
       </c>
-      <c r="H78" t="s">
-        <v>23</v>
-      </c>
-      <c r="I78" t="s">
-        <v>24</v>
-      </c>
-      <c r="J78" t="s">
+      <c r="L78" t="s">
+        <v>23</v>
+      </c>
+      <c r="M78" t="s">
+        <v>24</v>
+      </c>
+      <c r="N78" t="s">
         <v>25</v>
       </c>
-      <c r="K78" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>267</v>
+      <c r="O78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="D79" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E79" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G79" t="s">
+        <v>288</v>
+      </c>
+      <c r="H79" t="s">
+        <v>287</v>
+      </c>
+      <c r="I79" t="s">
+        <v>287</v>
+      </c>
+      <c r="J79" t="s">
+        <v>21</v>
+      </c>
+      <c r="K79" t="s">
         <v>29</v>
       </c>
-      <c r="H79" t="s">
-        <v>23</v>
-      </c>
-      <c r="I79" t="s">
-        <v>24</v>
-      </c>
-      <c r="J79" t="s">
+      <c r="L79" t="s">
+        <v>23</v>
+      </c>
+      <c r="M79" t="s">
+        <v>24</v>
+      </c>
+      <c r="N79" t="s">
         <v>25</v>
       </c>
-      <c r="K79" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B80" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>268</v>
+      <c r="O79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="D80" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G80" t="s">
+        <v>288</v>
+      </c>
+      <c r="H80" t="s">
+        <v>287</v>
+      </c>
+      <c r="I80" t="s">
+        <v>287</v>
+      </c>
+      <c r="J80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" t="s">
         <v>29</v>
       </c>
-      <c r="H80" t="s">
-        <v>23</v>
-      </c>
-      <c r="I80" t="s">
-        <v>24</v>
-      </c>
-      <c r="J80" t="s">
+      <c r="L80" t="s">
+        <v>23</v>
+      </c>
+      <c r="M80" t="s">
+        <v>24</v>
+      </c>
+      <c r="N80" t="s">
         <v>25</v>
       </c>
-      <c r="K80" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B81" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C81" s="3"/>
+      <c r="O80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E81" t="s">
         <v>144</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G81" t="s">
+        <v>287</v>
+      </c>
+      <c r="H81" t="s">
+        <v>287</v>
+      </c>
+      <c r="I81" t="s">
+        <v>287</v>
+      </c>
+      <c r="J81" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81" t="s">
         <v>29</v>
       </c>
-      <c r="H81" t="s">
-        <v>23</v>
-      </c>
-      <c r="I81" t="s">
-        <v>24</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="L81" t="s">
+        <v>23</v>
+      </c>
+      <c r="M81" t="s">
+        <v>24</v>
+      </c>
+      <c r="N81" t="s">
         <v>35</v>
       </c>
-      <c r="K81" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B82" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C82" s="6"/>
+      <c r="O81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C82" s="4"/>
       <c r="D82" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E82" t="s">
         <v>149</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="G82" t="s">
+        <v>149</v>
+      </c>
+      <c r="H82" t="s">
+        <v>149</v>
+      </c>
+      <c r="I82" t="s">
+        <v>149</v>
+      </c>
+      <c r="J82" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" t="s">
         <v>22</v>
       </c>
-      <c r="H82" t="s">
-        <v>23</v>
-      </c>
-      <c r="I82" t="s">
-        <v>24</v>
-      </c>
-      <c r="J82" t="s">
+      <c r="L82" t="s">
+        <v>23</v>
+      </c>
+      <c r="M82" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82" t="s">
         <v>25</v>
       </c>
-      <c r="K82" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B83" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C83" s="6"/>
+      <c r="O82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C83" s="4"/>
       <c r="D83" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E83" t="s">
         <v>149</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="G83" t="s">
+        <v>149</v>
+      </c>
+      <c r="H83" t="s">
+        <v>149</v>
+      </c>
+      <c r="I83" t="s">
+        <v>149</v>
+      </c>
+      <c r="J83" t="s">
+        <v>21</v>
+      </c>
+      <c r="K83" t="s">
         <v>22</v>
       </c>
-      <c r="H83" t="s">
-        <v>23</v>
-      </c>
-      <c r="I83" t="s">
-        <v>24</v>
-      </c>
-      <c r="J83" t="s">
+      <c r="L83" t="s">
+        <v>23</v>
+      </c>
+      <c r="M83" t="s">
+        <v>24</v>
+      </c>
+      <c r="N83" t="s">
         <v>25</v>
       </c>
-      <c r="K83" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B84" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C84" s="6"/>
+      <c r="O83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B84" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" s="4"/>
       <c r="D84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E84" t="s">
         <v>149</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="G84" t="s">
+        <v>149</v>
+      </c>
+      <c r="H84" t="s">
+        <v>149</v>
+      </c>
+      <c r="I84" t="s">
+        <v>149</v>
+      </c>
+      <c r="J84" t="s">
+        <v>21</v>
+      </c>
+      <c r="K84" t="s">
         <v>22</v>
       </c>
-      <c r="H84" t="s">
-        <v>23</v>
-      </c>
-      <c r="I84" t="s">
-        <v>24</v>
-      </c>
-      <c r="J84" t="s">
+      <c r="L84" t="s">
+        <v>23</v>
+      </c>
+      <c r="M84" t="s">
+        <v>24</v>
+      </c>
+      <c r="N84" t="s">
         <v>35</v>
       </c>
-      <c r="K84" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B85" s="6" t="s">
-        <v>258</v>
+      <c r="O84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B85" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="C85" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D85" t="s">
         <v>149</v>
@@ -5925,21 +6925,33 @@
         <v>149</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="G85" t="s">
+        <v>149</v>
+      </c>
+      <c r="H85" t="s">
+        <v>149</v>
+      </c>
+      <c r="I85" t="s">
+        <v>149</v>
+      </c>
+      <c r="J85" t="s">
+        <v>21</v>
+      </c>
+      <c r="K85" t="s">
         <v>29</v>
       </c>
-      <c r="H85" t="s">
-        <v>23</v>
-      </c>
-      <c r="I85" t="s">
-        <v>24</v>
-      </c>
-      <c r="J85" t="s">
-        <v>260</v>
-      </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
+        <v>23</v>
+      </c>
+      <c r="M85" t="s">
+        <v>24</v>
+      </c>
+      <c r="N85" t="s">
+        <v>261</v>
+      </c>
+      <c r="O85" t="s">
         <v>26</v>
       </c>
     </row>
